--- a/Extracted Data/VRU Headform - Prediction tables/2022_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Prediction tables/2022_cars_combined.xlsx
@@ -7,69 +7,69 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Honda HR-V" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Dacia Jogger" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="DS 4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Volvo C40 Recharge" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Mercedes-Benz C-Class" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Kia EV6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="VW Multivan" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Peugeot 308" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="ORA FUNKY CAT" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="WEY Coffee 01" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Kia Niro" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Genesis GV60" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Tesla Model Y" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Land Rover Discovery Sport" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="CHERY OMODA5" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Volkswagen ID. Buzz" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Volkswagen Touran" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Lexus RX" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Skoda Octavia" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="MG 4 Electric" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Ford Ranger" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Lucid Air" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Jeep Grand Cherokee" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Volkswagen Amarok" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Mercedes-Benz GLC" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Maxus MIFA 9" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Ford Puma" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="BMW 2 Series Coupé" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Renault Megane E-Tech" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Volkswagen Polo" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="Lexus NX" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="Volkswagen Taigo" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="Nissan Ariya" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="smart #1" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="Hyundai IONIQ 6" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="Toyota Corolla Cross" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="Land Rover Range Rover Sport" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="BMW 2 Series Coupé" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Lexus NX" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Renault Megane E-Tech" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Volkswagen Polo" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Volkswagen Taigo" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Dacia Jogger" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="DS 4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Honda HR-V" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Kia EV6" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mercedes-Benz C-Class" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Peugeot 308" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Volvo C40 Recharge" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="VW Multivan" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Alfa Romeo Tonale" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="BMW i4" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Cupra Born" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Kia Sportage" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Mercedes-Benz T-Class" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Toyota Aygo X" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Genesis GV60" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Kia Niro" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="ORA FUNKY CAT" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Tesla Model Y" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="WEY Coffee 01" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="BMW 2 Series Active Tourer" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="BMW X1" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="BYD Atto 3" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Citroën C5 X" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Mazda MAZDA CX-60" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Mercedes-EQ EQE" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Mobilize Limo" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="SEAT Arona" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="Seat Ibiza" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="Volkswagen Golf" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="DS 9" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="Honda Civic" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="Hyundai IONIQ 6" sheetId="37" state="visible" r:id="rId37"/>
     <sheet name="Isuzu D-Max Crew Cab" sheetId="38" state="visible" r:id="rId38"/>
     <sheet name="NIO ET7" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="Land Rover Range Rover" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="Renault Austral" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="DS 9" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="Tesla Model S" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="Honda Civic" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="Nissan X-Trail" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="WEY Coffee 02" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="Nissan Ariya" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="Nissan X-Trail" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="Land Rover Range Rover" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="Land Rover Range Rover Sport" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="Renault Austral" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="smart #1" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="Tesla Model S" sheetId="46" state="visible" r:id="rId46"/>
     <sheet name="Toyota bZ4X" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="Seat Ibiza" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="BMW X1" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="Mobilize Limo" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="Mercedes-EQ EQE" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="BYD Atto 3" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet name="Citroën C5 X" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet name="SEAT Arona" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet name="Mazda MAZDA CX-60" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet name="BMW 2 Series Active Tourer" sheetId="56" state="visible" r:id="rId56"/>
-    <sheet name="Volkswagen Golf" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet name="Kia Sportage" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet name="BMW i4" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet name="Mercedes-Benz T-Class" sheetId="60" state="visible" r:id="rId60"/>
-    <sheet name="Toyota Aygo X" sheetId="61" state="visible" r:id="rId61"/>
-    <sheet name="Alfa Romeo Tonale" sheetId="62" state="visible" r:id="rId62"/>
-    <sheet name="Cupra Born" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet name="Toyota Corolla Cross" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="WEY Coffee 02" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="CHERY OMODA5" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="Ford Puma" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="Ford Ranger" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="Jeep Grand Cherokee" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="Land Rover Discovery Sport" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="Lexus RX" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="Lucid Air" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="Maxus MIFA 9" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="Mercedes-Benz GLC" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="MG 4 Electric" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="Volkswagen Amarok" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="Volkswagen ID. Buzz" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet name="Volkswagen Touran" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet name="Skoda Octavia" sheetId="63" state="visible" r:id="rId63"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="D3" t="n">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3975903614457831</v>
+        <v>0.611764705882353</v>
       </c>
     </row>
     <row r="4">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>44.25</v>
+        <v>24.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3554216867469879</v>
+        <v>0.1941176470588235</v>
       </c>
     </row>
     <row r="5">
@@ -583,7 +583,7 @@
         <v>9.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1144578313253012</v>
+        <v>0.1117647058823529</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>3.25</v>
+        <v>0.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0783132530120482</v>
+        <v>0.01764705882352941</v>
       </c>
     </row>
     <row r="7">
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03012048192771084</v>
+        <v>0.06470588235294118</v>
       </c>
     </row>
     <row r="8">
@@ -628,13 +628,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02409638554216868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -660,10 +660,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D10" t="n">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="D3" t="n">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2102272727272727</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="4">
@@ -753,13 +753,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>54.75</v>
+        <v>16.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4147727272727273</v>
+        <v>0.130952380952381</v>
       </c>
     </row>
     <row r="5">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>16.5</v>
+        <v>6.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1875</v>
+        <v>0.07738095238095238</v>
       </c>
     </row>
     <row r="6">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07954545454545454</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="7">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1079545454545455</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="8">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.0119047619047619</v>
       </c>
     </row>
     <row r="9">
@@ -853,10 +853,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>111.75</v>
+        <v>144</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.1829268292682927</v>
       </c>
     </row>
     <row r="4">
@@ -946,13 +946,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>42</v>
+        <v>27.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.225609756097561</v>
       </c>
     </row>
     <row r="5">
@@ -963,13 +963,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.1402439024390244</v>
       </c>
     </row>
     <row r="6">
@@ -980,13 +980,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.1158536585365854</v>
       </c>
     </row>
     <row r="7">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3109756097560976</v>
       </c>
     </row>
     <row r="8">
@@ -1014,13 +1014,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="9">
@@ -1046,13 +1046,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D10" t="n">
-        <v>97.25</v>
+        <v>74</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1758241758241758</v>
+        <v>0.3588235294117647</v>
       </c>
     </row>
     <row r="4">
@@ -1139,13 +1139,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3296703296703297</v>
+        <v>0.2117647058823529</v>
       </c>
     </row>
     <row r="5">
@@ -1156,13 +1156,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2032967032967033</v>
+        <v>0.2117647058823529</v>
       </c>
     </row>
     <row r="6">
@@ -1179,7 +1179,7 @@
         <v>5.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.1235294117647059</v>
       </c>
     </row>
     <row r="7">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.09411764705882353</v>
       </c>
     </row>
     <row r="8">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03296703296703297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1239,13 +1239,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D10" t="n">
-        <v>100.75</v>
+        <v>111.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1298,13 +1298,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.06179775280898876</v>
       </c>
     </row>
     <row r="3">
@@ -1315,13 +1315,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3297872340425532</v>
+        <v>0.1797752808988764</v>
       </c>
     </row>
     <row r="4">
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" t="n">
-        <v>51</v>
+        <v>49.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3617021276595745</v>
+        <v>0.3707865168539326</v>
       </c>
     </row>
     <row r="5">
@@ -1349,13 +1349,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06914893617021277</v>
+        <v>0.1235955056179775</v>
       </c>
     </row>
     <row r="6">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04787234042553191</v>
+        <v>0.07865168539325842</v>
       </c>
     </row>
     <row r="7">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1595744680851064</v>
+        <v>0.1292134831460674</v>
       </c>
     </row>
     <row r="8">
@@ -1400,13 +1400,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03191489361702127</v>
+        <v>0.05617977528089887</v>
       </c>
     </row>
     <row r="9">
@@ -1432,10 +1432,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D10" t="n">
-        <v>121.75</v>
+        <v>107</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1508,13 +1508,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5059523809523809</v>
+        <v>0.2202380952380952</v>
       </c>
     </row>
     <row r="4">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>28.5</v>
+        <v>37.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2261904761904762</v>
+        <v>0.2976190476190476</v>
       </c>
     </row>
     <row r="5">
@@ -1542,13 +1542,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.119047619047619</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -1559,13 +1559,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07738095238095238</v>
+        <v>0.119047619047619</v>
       </c>
     </row>
     <row r="7">
@@ -1576,13 +1576,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.1726190476190476</v>
       </c>
     </row>
     <row r="8">
@@ -1593,13 +1593,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="9">
@@ -1628,10 +1628,10 @@
         <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>126.75</v>
+        <v>93.5</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1701,13 +1701,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="D3" t="n">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2848837209302326</v>
+        <v>0.6483516483516484</v>
       </c>
     </row>
     <row r="4">
@@ -1718,13 +1718,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>35.25</v>
+        <v>32.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2732558139534884</v>
+        <v>0.2362637362637363</v>
       </c>
     </row>
     <row r="5">
@@ -1735,13 +1735,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2034883720930233</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="6">
@@ -1752,13 +1752,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>0.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09302325581395349</v>
+        <v>0.01648351648351648</v>
       </c>
     </row>
     <row r="7">
@@ -1769,13 +1769,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1104651162790698</v>
+        <v>0.02197802197802198</v>
       </c>
     </row>
     <row r="8">
@@ -1786,13 +1786,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03488372093023256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1818,13 +1818,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D10" t="n">
-        <v>105.75</v>
+        <v>158</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1877,13 +1877,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2823529411764706</v>
+        <v>0.1234567901234568</v>
       </c>
     </row>
     <row r="3">
@@ -1894,13 +1894,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1294117647058824</v>
+        <v>0.1975308641975309</v>
       </c>
     </row>
     <row r="4">
@@ -1911,13 +1911,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
-        <v>14.25</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1117647058823529</v>
+        <v>0.2716049382716049</v>
       </c>
     </row>
     <row r="5">
@@ -1928,13 +1928,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1882352941176471</v>
+        <v>0.1851851851851852</v>
       </c>
     </row>
     <row r="6">
@@ -1945,13 +1945,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07647058823529412</v>
+        <v>0.06172839506172839</v>
       </c>
     </row>
     <row r="7">
@@ -1962,13 +1962,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1411764705882353</v>
+        <v>0.09876543209876543</v>
       </c>
     </row>
     <row r="8">
@@ -1979,13 +1979,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07058823529411765</v>
+        <v>0.06172839506172839</v>
       </c>
     </row>
     <row r="9">
@@ -2011,10 +2011,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D10" t="n">
-        <v>103.5</v>
+        <v>102.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2070,13 +2070,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1325301204819277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2087,13 +2087,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E3" t="n">
-        <v>0.427710843373494</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -2110,7 +2110,7 @@
         <v>26.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2108433734939759</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="5">
@@ -2121,13 +2121,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1144578313253012</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -2138,13 +2138,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>0.75</v>
+        <v>3.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01807228915662651</v>
+        <v>0.07647058823529412</v>
       </c>
     </row>
     <row r="7">
@@ -2155,13 +2155,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02409638554216868</v>
+        <v>0.09411764705882353</v>
       </c>
     </row>
     <row r="8">
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07228915662650602</v>
+        <v>0.02352941176470588</v>
       </c>
     </row>
     <row r="9">
@@ -2204,10 +2204,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D10" t="n">
-        <v>129.5</v>
+        <v>114.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2263,13 +2263,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.103448275862069</v>
       </c>
     </row>
     <row r="3">
@@ -2280,13 +2280,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3791208791208791</v>
+        <v>0.09770114942528736</v>
       </c>
     </row>
     <row r="4">
@@ -2297,13 +2297,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>48.75</v>
+        <v>45</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="5">
@@ -2314,13 +2314,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>21.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1208791208791209</v>
+        <v>0.2471264367816092</v>
       </c>
     </row>
     <row r="6">
@@ -2331,13 +2331,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1043956043956044</v>
+        <v>0.08045977011494253</v>
       </c>
     </row>
     <row r="7">
@@ -2348,13 +2348,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02747252747252747</v>
+        <v>0.06896551724137931</v>
       </c>
     </row>
     <row r="8">
@@ -2365,13 +2365,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.05747126436781609</v>
       </c>
     </row>
     <row r="9">
@@ -2397,10 +2397,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D10" t="n">
-        <v>133.5</v>
+        <v>105</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2456,13 +2456,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.1184210526315789</v>
       </c>
     </row>
     <row r="3">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2261904761904762</v>
+        <v>0.2960526315789473</v>
       </c>
     </row>
     <row r="4">
@@ -2490,13 +2490,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D4" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4047619047619048</v>
+        <v>0.3421052631578947</v>
       </c>
     </row>
     <row r="5">
@@ -2507,13 +2507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>19.5</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2321428571428572</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="6">
@@ -2524,13 +2524,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.006578947368421052</v>
       </c>
     </row>
     <row r="7">
@@ -2541,13 +2541,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="8">
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="9">
@@ -2590,10 +2590,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D10" t="n">
-        <v>112.25</v>
+        <v>110.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2649,13 +2649,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03896103896103896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2666,13 +2666,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2792207792207792</v>
+        <v>0.3588235294117647</v>
       </c>
     </row>
     <row r="4">
@@ -2683,13 +2683,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2597402597402597</v>
+        <v>0.3058823529411765</v>
       </c>
     </row>
     <row r="5">
@@ -2700,13 +2700,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1753246753246753</v>
+        <v>0.1823529411764706</v>
       </c>
     </row>
     <row r="6">
@@ -2717,13 +2717,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03896103896103896</v>
+        <v>0.09411764705882353</v>
       </c>
     </row>
     <row r="7">
@@ -2734,13 +2734,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.03529411764705882</v>
       </c>
     </row>
     <row r="8">
@@ -2751,13 +2751,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06493506493506493</v>
+        <v>0.02352941176470588</v>
       </c>
     </row>
     <row r="9">
@@ -2783,10 +2783,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D10" t="n">
-        <v>94</v>
+        <v>119.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2842,13 +2842,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1162790697674419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2859,13 +2859,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1511627906976744</v>
+        <v>0.1758241758241758</v>
       </c>
     </row>
     <row r="4">
@@ -2876,13 +2876,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2790697674418605</v>
+        <v>0.3296703296703297</v>
       </c>
     </row>
     <row r="5">
@@ -2893,13 +2893,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>22.5</v>
+        <v>18.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2616279069767442</v>
+        <v>0.2032967032967033</v>
       </c>
     </row>
     <row r="6">
@@ -2910,13 +2910,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>5.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02325581395348837</v>
+        <v>0.1153846153846154</v>
       </c>
     </row>
     <row r="7">
@@ -2927,13 +2927,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1220930232558139</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="8">
@@ -2944,13 +2944,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04651162790697674</v>
+        <v>0.03296703296703297</v>
       </c>
     </row>
     <row r="9">
@@ -2976,13 +2976,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D10" t="n">
-        <v>105.5</v>
+        <v>100.75</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3518518518518519</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="4">
@@ -3069,13 +3069,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>47.25</v>
+        <v>42</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -3086,13 +3086,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>8.5</v>
+        <v>17.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1049382716049383</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -3103,13 +3103,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0308641975308642</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -3120,13 +3120,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1234567901234568</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -3137,13 +3137,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="9">
@@ -3169,13 +3169,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>114</v>
+        <v>97.25</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3228,13 +3228,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03645833333333334</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="3">
@@ -3245,13 +3245,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2708333333333333</v>
+        <v>0.2202380952380952</v>
       </c>
     </row>
     <row r="4">
@@ -3262,13 +3262,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>42</v>
+        <v>23.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.1845238095238095</v>
       </c>
     </row>
     <row r="5">
@@ -3279,13 +3279,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>12.5</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1302083333333333</v>
+        <v>0.2261904761904762</v>
       </c>
     </row>
     <row r="6">
@@ -3296,13 +3296,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="7">
@@ -3313,13 +3313,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.21875</v>
+        <v>0.1904761904761905</v>
       </c>
     </row>
     <row r="8">
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03125</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="9">
@@ -3362,13 +3362,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>114.5</v>
+        <v>97.25</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3444,7 +3444,7 @@
         <v>62</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3780487804878049</v>
+        <v>0.3297872340425532</v>
       </c>
     </row>
     <row r="4">
@@ -3455,13 +3455,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D4" t="n">
-        <v>30.75</v>
+        <v>51</v>
       </c>
       <c r="E4" t="n">
-        <v>0.25</v>
+        <v>0.3617021276595745</v>
       </c>
     </row>
     <row r="5">
@@ -3472,13 +3472,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>6.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1707317073170732</v>
+        <v>0.06914893617021277</v>
       </c>
     </row>
     <row r="6">
@@ -3489,13 +3489,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09146341463414634</v>
+        <v>0.04787234042553191</v>
       </c>
     </row>
     <row r="7">
@@ -3506,13 +3506,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1097560975609756</v>
+        <v>0.1595744680851064</v>
       </c>
     </row>
     <row r="8">
@@ -3523,13 +3523,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.03191489361702127</v>
       </c>
     </row>
     <row r="9">
@@ -3555,10 +3555,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="D10" t="n">
-        <v>110.5</v>
+        <v>121.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -3631,13 +3631,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3518518518518519</v>
+        <v>0.2102272727272727</v>
       </c>
     </row>
     <row r="4">
@@ -3648,13 +3648,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D4" t="n">
-        <v>47.25</v>
+        <v>54.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.4147727272727273</v>
       </c>
     </row>
     <row r="5">
@@ -3665,13 +3665,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>8.5</v>
+        <v>16.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1049382716049383</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="6">
@@ -3682,13 +3682,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0308641975308642</v>
+        <v>0.07954545454545454</v>
       </c>
     </row>
     <row r="7">
@@ -3699,13 +3699,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1234567901234568</v>
+        <v>0.1079545454545455</v>
       </c>
     </row>
     <row r="8">
@@ -3748,10 +3748,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="D10" t="n">
-        <v>114</v>
+        <v>111.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -3807,13 +3807,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.05357142857142857</v>
       </c>
     </row>
     <row r="3">
@@ -3824,13 +3824,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D3" t="n">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2277777777777778</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="4">
@@ -3841,13 +3841,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5111111111111111</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="5">
@@ -3858,13 +3858,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>6.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1555555555555556</v>
+        <v>0.07738095238095238</v>
       </c>
     </row>
     <row r="6">
@@ -3875,13 +3875,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="7">
@@ -3892,13 +3892,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.1785714285714286</v>
       </c>
     </row>
     <row r="8">
@@ -3909,13 +3909,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="9">
@@ -3941,10 +3941,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>127.75</v>
+        <v>110</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -4017,13 +4017,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1436781609195402</v>
+        <v>0.4753086419753086</v>
       </c>
     </row>
     <row r="4">
@@ -4034,13 +4034,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D4" t="n">
-        <v>47.25</v>
+        <v>39.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3620689655172414</v>
+        <v>0.3271604938271605</v>
       </c>
     </row>
     <row r="5">
@@ -4051,13 +4051,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>15.5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1781609195402299</v>
+        <v>0.04938271604938271</v>
       </c>
     </row>
     <row r="6">
@@ -4068,13 +4068,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09195402298850575</v>
+        <v>0.04320987654320987</v>
       </c>
     </row>
     <row r="7">
@@ -4085,13 +4085,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1781609195402299</v>
+        <v>0.09259259259259259</v>
       </c>
     </row>
     <row r="8">
@@ -4102,13 +4102,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04597701149425287</v>
+        <v>0.01234567901234568</v>
       </c>
     </row>
     <row r="9">
@@ -4134,10 +4134,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D10" t="n">
-        <v>91.75</v>
+        <v>122.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -4193,13 +4193,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04320987654320987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1790123456790123</v>
+        <v>0.2151162790697674</v>
       </c>
     </row>
     <row r="4">
@@ -4227,13 +4227,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>47.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2469135802469136</v>
+        <v>0.3662790697674418</v>
       </c>
     </row>
     <row r="5">
@@ -4244,13 +4244,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2160493827160494</v>
+        <v>0.1802325581395349</v>
       </c>
     </row>
     <row r="6">
@@ -4261,13 +4261,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.0872093023255814</v>
       </c>
     </row>
     <row r="7">
@@ -4278,13 +4278,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.191358024691358</v>
+        <v>0.1162790697674419</v>
       </c>
     </row>
     <row r="8">
@@ -4295,13 +4295,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04938271604938271</v>
+        <v>0.03488372093023256</v>
       </c>
     </row>
     <row r="9">
@@ -4327,10 +4327,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D10" t="n">
-        <v>86.5</v>
+        <v>103.5</v>
       </c>
       <c r="E10" t="n">
         <v>0.9999999999999999</v>
@@ -4403,13 +4403,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D3" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E3" t="n">
-        <v>0.611764705882353</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
@@ -4437,13 +4437,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1117647058823529</v>
+        <v>0.01176470588235294</v>
       </c>
     </row>
     <row r="6">
@@ -4454,13 +4454,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01764705882352941</v>
+        <v>0.02352941176470588</v>
       </c>
     </row>
     <row r="7">
@@ -4471,13 +4471,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06470588235294118</v>
+        <v>0.1470588235294118</v>
       </c>
     </row>
     <row r="8">
@@ -4488,13 +4488,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.02352941176470588</v>
       </c>
     </row>
     <row r="9">
@@ -4523,7 +4523,7 @@
         <v>170</v>
       </c>
       <c r="D10" t="n">
-        <v>139</v>
+        <v>128.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -4579,13 +4579,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05357142857142857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4596,13 +4596,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="D3" t="n">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.6158536585365854</v>
       </c>
     </row>
     <row r="4">
@@ -4613,13 +4613,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>30.75</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>0.244047619047619</v>
+        <v>0.2439024390243902</v>
       </c>
     </row>
     <row r="5">
@@ -4630,13 +4630,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.07317073170731707</v>
       </c>
     </row>
     <row r="6">
@@ -4647,13 +4647,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.06707317073170732</v>
       </c>
     </row>
     <row r="7">
@@ -4664,13 +4664,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1071428571428571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4681,13 +4681,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05952380952380952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D10" t="n">
-        <v>100.5</v>
+        <v>139.75</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4772,13 +4772,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.05357142857142857</v>
       </c>
     </row>
     <row r="3">
@@ -4789,13 +4789,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -4806,13 +4806,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>17.25</v>
+        <v>30.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1369047619047619</v>
+        <v>0.244047619047619</v>
       </c>
     </row>
     <row r="5">
@@ -4823,13 +4823,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="D5" t="n">
-        <v>3.5</v>
+        <v>24</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="6">
@@ -4840,13 +4840,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02976190476190476</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1845238095238095</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="8">
@@ -4874,13 +4874,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.05952380952380952</v>
       </c>
     </row>
     <row r="9">
@@ -4909,10 +4909,10 @@
         <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>120</v>
+        <v>100.5</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4965,13 +4965,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1012658227848101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4982,13 +4982,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2151898734177215</v>
+        <v>0.4402173913043478</v>
       </c>
     </row>
     <row r="4">
@@ -4999,13 +4999,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>39.75</v>
+        <v>42</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3354430379746836</v>
+        <v>0.3043478260869565</v>
       </c>
     </row>
     <row r="5">
@@ -5016,13 +5016,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1518987341772152</v>
+        <v>0.09239130434782608</v>
       </c>
     </row>
     <row r="6">
@@ -5033,13 +5033,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>3.25</v>
+        <v>1.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08227848101265822</v>
+        <v>0.02717391304347826</v>
       </c>
     </row>
     <row r="7">
@@ -5050,13 +5050,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05063291139240506</v>
+        <v>0.1032608695652174</v>
       </c>
     </row>
     <row r="8">
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06329113924050633</v>
+        <v>0.03260869565217391</v>
       </c>
     </row>
     <row r="9">
@@ -5099,10 +5099,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="D10" t="n">
-        <v>105</v>
+        <v>132.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -5158,13 +5158,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.05294117647058823</v>
       </c>
     </row>
     <row r="3">
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3588235294117647</v>
+        <v>0.1411764705882353</v>
       </c>
     </row>
     <row r="4">
@@ -5192,13 +5192,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>39</v>
+        <v>42.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3058823529411765</v>
+        <v>0.3352941176470588</v>
       </c>
     </row>
     <row r="5">
@@ -5209,13 +5209,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1823529411764706</v>
+        <v>0.1529411764705882</v>
       </c>
     </row>
     <row r="6">
@@ -5226,13 +5226,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09411764705882353</v>
+        <v>0.08823529411764706</v>
       </c>
     </row>
     <row r="7">
@@ -5243,13 +5243,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03529411764705882</v>
+        <v>0.1823529411764706</v>
       </c>
     </row>
     <row r="8">
@@ -5260,13 +5260,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02352941176470588</v>
+        <v>0.04705882352941176</v>
       </c>
     </row>
     <row r="9">
@@ -5295,7 +5295,7 @@
         <v>170</v>
       </c>
       <c r="D10" t="n">
-        <v>119.5</v>
+        <v>92.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -5351,13 +5351,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04605263157894737</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="3">
@@ -5368,13 +5368,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2302631578947368</v>
+        <v>0.2345679012345679</v>
       </c>
     </row>
     <row r="4">
@@ -5385,13 +5385,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n">
-        <v>37.5</v>
+        <v>34.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3289473684210527</v>
+        <v>0.2839506172839506</v>
       </c>
     </row>
     <row r="5">
@@ -5402,13 +5402,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1907894736842105</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="6">
@@ -5419,13 +5419,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1118421052631579</v>
+        <v>0.08024691358024691</v>
       </c>
     </row>
     <row r="7">
@@ -5436,13 +5436,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03947368421052631</v>
+        <v>0.09259259259259259</v>
       </c>
     </row>
     <row r="8">
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04938271604938271</v>
       </c>
     </row>
     <row r="9">
@@ -5485,13 +5485,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D10" t="n">
-        <v>98.25</v>
+        <v>101.25</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5544,13 +5544,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="3">
@@ -5561,13 +5561,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.1604938271604938</v>
       </c>
     </row>
     <row r="4">
@@ -5578,13 +5578,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>46.5</v>
+        <v>32.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3647058823529412</v>
+        <v>0.2654320987654321</v>
       </c>
     </row>
     <row r="5">
@@ -5595,13 +5595,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>19.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.2407407407407407</v>
       </c>
     </row>
     <row r="6">
@@ -5612,13 +5612,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="7">
@@ -5635,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1</v>
+        <v>0.1049382716049383</v>
       </c>
     </row>
     <row r="8">
@@ -5646,13 +5646,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03529411764705882</v>
+        <v>0.06172839506172839</v>
       </c>
     </row>
     <row r="9">
@@ -5678,10 +5678,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D10" t="n">
-        <v>110.25</v>
+        <v>98</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -5737,13 +5737,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -5754,13 +5754,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2261904761904762</v>
+        <v>0.26875</v>
       </c>
     </row>
     <row r="4">
@@ -5771,13 +5771,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D4" t="n">
-        <v>43.5</v>
+        <v>50.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3452380952380952</v>
+        <v>0.41875</v>
       </c>
     </row>
     <row r="5">
@@ -5788,13 +5788,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="6">
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08928571428571429</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.0375</v>
       </c>
     </row>
     <row r="8">
@@ -5839,13 +5839,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9">
@@ -5871,10 +5871,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D10" t="n">
-        <v>104.25</v>
+        <v>113.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -5930,13 +5930,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0449438202247191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5947,13 +5947,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03370786516853932</v>
+        <v>0.5176470588235295</v>
       </c>
     </row>
     <row r="4">
@@ -5964,13 +5964,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>18.75</v>
+        <v>23.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1404494382022472</v>
+        <v>0.1823529411764706</v>
       </c>
     </row>
     <row r="5">
@@ -5981,13 +5981,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>32.5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3651685393258427</v>
+        <v>0.07058823529411765</v>
       </c>
     </row>
     <row r="6">
@@ -5998,13 +5998,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>1.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2022471910112359</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="7">
@@ -6015,13 +6015,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1797752808988764</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="8">
@@ -6032,13 +6032,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03370786516853932</v>
+        <v>0.02352941176470588</v>
       </c>
     </row>
     <row r="9">
@@ -6064,13 +6064,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D10" t="n">
-        <v>74.25</v>
+        <v>118.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6140,13 +6140,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D3" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4176470588235294</v>
       </c>
     </row>
     <row r="4">
@@ -6157,13 +6157,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D4" t="n">
-        <v>43.5</v>
+        <v>45.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3452380952380952</v>
+        <v>0.3588235294117647</v>
       </c>
     </row>
     <row r="5">
@@ -6174,13 +6174,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1130952380952381</v>
+        <v>0.07058823529411765</v>
       </c>
     </row>
     <row r="6">
@@ -6191,13 +6191,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.04705882352941176</v>
       </c>
     </row>
     <row r="7">
@@ -6208,13 +6208,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.07058823529411765</v>
       </c>
     </row>
     <row r="8">
@@ -6225,13 +6225,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.03529411764705882</v>
       </c>
     </row>
     <row r="9">
@@ -6257,13 +6257,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D10" t="n">
-        <v>131</v>
+        <v>124.75</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6316,13 +6316,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.0449438202247191</v>
       </c>
     </row>
     <row r="3">
@@ -6333,13 +6333,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3166666666666667</v>
+        <v>0.03370786516853932</v>
       </c>
     </row>
     <row r="4">
@@ -6350,13 +6350,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>32.25</v>
+        <v>18.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2388888888888889</v>
+        <v>0.1404494382022472</v>
       </c>
     </row>
     <row r="5">
@@ -6367,13 +6367,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
-        <v>20.5</v>
+        <v>32.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2277777777777778</v>
+        <v>0.3651685393258427</v>
       </c>
     </row>
     <row r="6">
@@ -6384,13 +6384,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>4.25</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09444444444444444</v>
+        <v>0.2022471910112359</v>
       </c>
     </row>
     <row r="7">
@@ -6401,13 +6401,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1222222222222222</v>
+        <v>0.1797752808988764</v>
       </c>
     </row>
     <row r="8">
@@ -6418,13 +6418,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.03370786516853932</v>
       </c>
     </row>
     <row r="9">
@@ -6450,13 +6450,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D10" t="n">
-        <v>114</v>
+        <v>74.25</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6895,13 +6895,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.1012658227848101</v>
       </c>
     </row>
     <row r="3">
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3588235294117647</v>
+        <v>0.2151898734177215</v>
       </c>
     </row>
     <row r="4">
@@ -6929,13 +6929,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>39.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2117647058823529</v>
+        <v>0.3354430379746836</v>
       </c>
     </row>
     <row r="5">
@@ -6946,13 +6946,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2117647058823529</v>
+        <v>0.1518987341772152</v>
       </c>
     </row>
     <row r="6">
@@ -6963,13 +6963,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1235294117647059</v>
+        <v>0.08227848101265822</v>
       </c>
     </row>
     <row r="7">
@@ -6980,13 +6980,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09411764705882353</v>
+        <v>0.05063291139240506</v>
       </c>
     </row>
     <row r="8">
@@ -6997,13 +6997,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.06329113924050633</v>
       </c>
     </row>
     <row r="9">
@@ -7029,10 +7029,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D10" t="n">
-        <v>111.25</v>
+        <v>105</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -7105,13 +7105,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="4">
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D4" t="n">
-        <v>51.75</v>
+        <v>46.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3833333333333334</v>
+        <v>0.3647058823529412</v>
       </c>
     </row>
     <row r="5">
@@ -7139,13 +7139,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1777777777777778</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="6">
@@ -7156,13 +7156,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06111111111111111</v>
+        <v>0.08823529411764706</v>
       </c>
     </row>
     <row r="7">
@@ -7173,13 +7173,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
@@ -7190,13 +7190,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.03529411764705882</v>
       </c>
     </row>
     <row r="9">
@@ -7222,10 +7222,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D10" t="n">
-        <v>118.5</v>
+        <v>110.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.3294117647058823</v>
       </c>
     </row>
     <row r="4">
@@ -7315,13 +7315,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n">
-        <v>32.25</v>
+        <v>43.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2559523809523809</v>
+        <v>0.3411764705882353</v>
       </c>
     </row>
     <row r="5">
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>10.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3095238095238095</v>
+        <v>0.1235294117647059</v>
       </c>
     </row>
     <row r="6">
@@ -7349,13 +7349,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1011904761904762</v>
+        <v>0.07058823529411765</v>
       </c>
     </row>
     <row r="7">
@@ -7366,13 +7366,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.1117647058823529</v>
       </c>
     </row>
     <row r="8">
@@ -7383,13 +7383,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.02352941176470588</v>
       </c>
     </row>
     <row r="9">
@@ -7415,13 +7415,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D10" t="n">
-        <v>94.5</v>
+        <v>113</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7491,13 +7491,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="D3" t="n">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5176470588235295</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -7508,13 +7508,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="D4" t="n">
-        <v>23.25</v>
+        <v>51.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1823529411764706</v>
+        <v>0.3833333333333334</v>
       </c>
     </row>
     <row r="5">
@@ -7525,13 +7525,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07058823529411765</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="6">
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.06111111111111111</v>
       </c>
     </row>
     <row r="7">
@@ -7559,13 +7559,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="8">
@@ -7576,13 +7576,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02352941176470588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D10" t="n">
         <v>118.5</v>
@@ -7684,13 +7684,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3556701030927835</v>
+        <v>0.3166666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>60</v>
+        <v>32.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4123711340206185</v>
+        <v>0.2388888888888889</v>
       </c>
     </row>
     <row r="5">
@@ -7718,13 +7718,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>5.5</v>
+        <v>20.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05670103092783505</v>
+        <v>0.2277777777777778</v>
       </c>
     </row>
     <row r="6">
@@ -7735,13 +7735,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04639175257731959</v>
+        <v>0.09444444444444444</v>
       </c>
     </row>
     <row r="7">
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1082474226804124</v>
+        <v>0.1222222222222222</v>
       </c>
     </row>
     <row r="8">
@@ -7769,13 +7769,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02061855670103093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -7801,10 +7801,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D10" t="n">
-        <v>136.75</v>
+        <v>114</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -7877,13 +7877,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4176470588235294</v>
+        <v>0.1904761904761905</v>
       </c>
     </row>
     <row r="4">
@@ -7894,13 +7894,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>45.75</v>
+        <v>32.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3588235294117647</v>
+        <v>0.2559523809523809</v>
       </c>
     </row>
     <row r="5">
@@ -7911,13 +7911,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07058823529411765</v>
+        <v>0.3095238095238095</v>
       </c>
     </row>
     <row r="6">
@@ -7928,13 +7928,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>4.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04705882352941176</v>
+        <v>0.1011904761904762</v>
       </c>
     </row>
     <row r="7">
@@ -7945,13 +7945,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07058823529411765</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="8">
@@ -7968,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03529411764705882</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="9">
@@ -7994,10 +7994,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>124.75</v>
+        <v>94.5</v>
       </c>
       <c r="E10" t="n">
         <v>0.9999999999999999</v>
@@ -8053,13 +8053,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.01785714285714286</v>
       </c>
     </row>
     <row r="3">
@@ -8070,13 +8070,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3294117647058823</v>
+        <v>0.2261904761904762</v>
       </c>
     </row>
     <row r="4">
@@ -8093,7 +8093,7 @@
         <v>43.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3411764705882353</v>
+        <v>0.3452380952380952</v>
       </c>
     </row>
     <row r="5">
@@ -8104,13 +8104,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1235294117647059</v>
+        <v>0.1904761904761905</v>
       </c>
     </row>
     <row r="6">
@@ -8121,13 +8121,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07058823529411765</v>
+        <v>0.08928571428571429</v>
       </c>
     </row>
     <row r="7">
@@ -8138,13 +8138,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1117647058823529</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="8">
@@ -8161,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02352941176470588</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="9">
@@ -8187,10 +8187,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>113</v>
+        <v>104.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -8263,13 +8263,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D3" t="n">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2722222222222222</v>
+        <v>0.3556701030927835</v>
       </c>
     </row>
     <row r="4">
@@ -8280,13 +8280,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>43.5</v>
+        <v>60</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3222222222222222</v>
+        <v>0.4123711340206185</v>
       </c>
     </row>
     <row r="5">
@@ -8297,13 +8297,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>5.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.05670103092783505</v>
       </c>
     </row>
     <row r="6">
@@ -8314,13 +8314,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07222222222222222</v>
+        <v>0.04639175257731959</v>
       </c>
     </row>
     <row r="7">
@@ -8331,13 +8331,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1</v>
+        <v>0.1082474226804124</v>
       </c>
     </row>
     <row r="8">
@@ -8348,13 +8348,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.02061855670103093</v>
       </c>
     </row>
     <row r="9">
@@ -8380,13 +8380,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D10" t="n">
-        <v>116.75</v>
+        <v>136.75</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8632,13 +8632,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -8649,13 +8649,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1604938271604938</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -8666,13 +8666,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n">
-        <v>32.25</v>
+        <v>43.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2654320987654321</v>
+        <v>0.3452380952380952</v>
       </c>
     </row>
     <row r="5">
@@ -8683,13 +8683,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>19.5</v>
+        <v>9.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2407407407407407</v>
+        <v>0.1130952380952381</v>
       </c>
     </row>
     <row r="6">
@@ -8700,13 +8700,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="7">
@@ -8717,13 +8717,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1049382716049383</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="8">
@@ -8734,13 +8734,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06172839506172839</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="9">
@@ -8766,10 +8766,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -8842,13 +8842,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4753086419753086</v>
+        <v>0.2722222222222222</v>
       </c>
     </row>
     <row r="4">
@@ -8859,13 +8859,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n">
-        <v>39.75</v>
+        <v>43.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3271604938271605</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="5">
@@ -8876,13 +8876,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04938271604938271</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -8893,13 +8893,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04320987654320987</v>
+        <v>0.07222222222222222</v>
       </c>
     </row>
     <row r="7">
@@ -8910,13 +8910,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
@@ -8927,13 +8927,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01234567901234568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -8959,13 +8959,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="D10" t="n">
-        <v>122.5</v>
+        <v>116.75</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9018,13 +9018,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.04605263157894737</v>
       </c>
     </row>
     <row r="3">
@@ -9035,13 +9035,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.2302631578947368</v>
       </c>
     </row>
     <row r="4">
@@ -9052,13 +9052,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>16.5</v>
+        <v>37.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.130952380952381</v>
+        <v>0.3289473684210527</v>
       </c>
     </row>
     <row r="5">
@@ -9069,13 +9069,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>6.5</v>
+        <v>14.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07738095238095238</v>
+        <v>0.1907894736842105</v>
       </c>
     </row>
     <row r="6">
@@ -9086,13 +9086,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>4.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.1118421052631579</v>
       </c>
     </row>
     <row r="7">
@@ -9103,13 +9103,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.03947368421052631</v>
       </c>
     </row>
     <row r="8">
@@ -9120,13 +9120,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="9">
@@ -9152,10 +9152,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D10" t="n">
-        <v>144</v>
+        <v>98.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -9211,13 +9211,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05294117647058823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -9228,13 +9228,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1411764705882353</v>
+        <v>0.2848837209302326</v>
       </c>
     </row>
     <row r="4">
@@ -9245,13 +9245,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
-        <v>42.75</v>
+        <v>35.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3352941176470588</v>
+        <v>0.2732558139534884</v>
       </c>
     </row>
     <row r="5">
@@ -9262,13 +9262,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1529411764705882</v>
+        <v>0.2034883720930233</v>
       </c>
     </row>
     <row r="6">
@@ -9279,13 +9279,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.09302325581395349</v>
       </c>
     </row>
     <row r="7">
@@ -9296,13 +9296,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1823529411764706</v>
+        <v>0.1104651162790698</v>
       </c>
     </row>
     <row r="8">
@@ -9313,13 +9313,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04705882352941176</v>
+        <v>0.03488372093023256</v>
       </c>
     </row>
     <row r="9">
@@ -9345,13 +9345,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D10" t="n">
-        <v>92.5</v>
+        <v>105.75</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9404,13 +9404,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.04320987654320987</v>
       </c>
     </row>
     <row r="3">
@@ -9421,13 +9421,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4402173913043478</v>
+        <v>0.1790123456790123</v>
       </c>
     </row>
     <row r="4">
@@ -9438,13 +9438,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.2469135802469136</v>
       </c>
     </row>
     <row r="5">
@@ -9455,13 +9455,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>8.5</v>
+        <v>17.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09239130434782608</v>
+        <v>0.2160493827160494</v>
       </c>
     </row>
     <row r="6">
@@ -9472,13 +9472,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02717391304347826</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="7">
@@ -9489,13 +9489,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1032608695652174</v>
+        <v>0.191358024691358</v>
       </c>
     </row>
     <row r="8">
@@ -9506,13 +9506,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03260869565217391</v>
+        <v>0.04938271604938271</v>
       </c>
     </row>
     <row r="9">
@@ -9538,13 +9538,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="D10" t="n">
-        <v>132.75</v>
+        <v>86.5</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9614,13 +9614,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2151162790697674</v>
+        <v>0.3518518518518519</v>
       </c>
     </row>
     <row r="4">
@@ -9637,7 +9637,7 @@
         <v>47.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3662790697674418</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="5">
@@ -9648,13 +9648,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>15.5</v>
+        <v>8.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1802325581395349</v>
+        <v>0.1049382716049383</v>
       </c>
     </row>
     <row r="6">
@@ -9665,13 +9665,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0872093023255814</v>
+        <v>0.0308641975308642</v>
       </c>
     </row>
     <row r="7">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1162790697674419</v>
+        <v>0.1234567901234568</v>
       </c>
     </row>
     <row r="8">
@@ -9699,13 +9699,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03488372093023256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -9731,13 +9731,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D10" t="n">
-        <v>103.5</v>
+        <v>114</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9807,13 +9807,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="D3" t="n">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6</v>
+        <v>0.3780487804878049</v>
       </c>
     </row>
     <row r="4">
@@ -9824,13 +9824,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>24.75</v>
+        <v>30.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1941176470588235</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -9841,13 +9841,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01176470588235294</v>
+        <v>0.1707317073170732</v>
       </c>
     </row>
     <row r="6">
@@ -9858,13 +9858,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>3.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02352941176470588</v>
+        <v>0.09146341463414634</v>
       </c>
     </row>
     <row r="7">
@@ -9875,13 +9875,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.1097560975609756</v>
       </c>
     </row>
     <row r="8">
@@ -9892,13 +9892,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02352941176470588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -9924,10 +9924,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D10" t="n">
-        <v>128.75</v>
+        <v>110.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -9983,13 +9983,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -10000,13 +10000,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="D3" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2345679012345679</v>
+        <v>0.5059523809523809</v>
       </c>
     </row>
     <row r="4">
@@ -10017,13 +10017,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>34.5</v>
+        <v>28.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2839506172839506</v>
+        <v>0.2261904761904762</v>
       </c>
     </row>
     <row r="5">
@@ -10034,13 +10034,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2037037037037037</v>
+        <v>0.119047619047619</v>
       </c>
     </row>
     <row r="6">
@@ -10057,7 +10057,7 @@
         <v>3.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08024691358024691</v>
+        <v>0.07738095238095238</v>
       </c>
     </row>
     <row r="7">
@@ -10068,13 +10068,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="8">
@@ -10085,13 +10085,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04938271604938271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -10117,13 +10117,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>101.25</v>
+        <v>126.75</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10193,13 +10193,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="D3" t="n">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6158536585365854</v>
+        <v>0.3791208791208791</v>
       </c>
     </row>
     <row r="4">
@@ -10210,13 +10210,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>48.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2439024390243902</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="5">
@@ -10227,13 +10227,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07317073170731707</v>
+        <v>0.1208791208791209</v>
       </c>
     </row>
     <row r="6">
@@ -10244,13 +10244,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06707317073170732</v>
+        <v>0.1043956043956044</v>
       </c>
     </row>
     <row r="7">
@@ -10261,13 +10261,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.02747252747252747</v>
       </c>
     </row>
     <row r="8">
@@ -10278,13 +10278,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.01098901098901099</v>
       </c>
     </row>
     <row r="9">
@@ -10310,10 +10310,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="D10" t="n">
-        <v>139.75</v>
+        <v>133.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -10369,13 +10369,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05357142857142857</v>
+        <v>0.03645833333333334</v>
       </c>
     </row>
     <row r="3">
@@ -10386,13 +10386,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3928571428571428</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -10403,13 +10403,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -10420,13 +10420,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07738095238095238</v>
+        <v>0.1302083333333333</v>
       </c>
     </row>
     <row r="6">
@@ -10437,13 +10437,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -10454,13 +10454,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1785714285714286</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="8">
@@ -10471,13 +10471,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="9">
@@ -10503,10 +10503,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="D10" t="n">
-        <v>110</v>
+        <v>114.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -10562,13 +10562,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -10579,13 +10579,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>0.26875</v>
+        <v>0.1436781609195402</v>
       </c>
     </row>
     <row r="4">
@@ -10596,13 +10596,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
-        <v>50.25</v>
+        <v>47.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.41875</v>
+        <v>0.3620689655172414</v>
       </c>
     </row>
     <row r="5">
@@ -10613,13 +10613,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.125</v>
+        <v>0.1781609195402299</v>
       </c>
     </row>
     <row r="6">
@@ -10630,13 +10630,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05</v>
+        <v>0.09195402298850575</v>
       </c>
     </row>
     <row r="7">
@@ -10647,13 +10647,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0375</v>
+        <v>0.1781609195402299</v>
       </c>
     </row>
     <row r="8">
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05</v>
+        <v>0.04597701149425287</v>
       </c>
     </row>
     <row r="9">
@@ -10696,10 +10696,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="D10" t="n">
-        <v>113.25</v>
+        <v>91.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -10772,13 +10772,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D3" t="n">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4</v>
+        <v>0.2277777777777778</v>
       </c>
     </row>
     <row r="4">
@@ -10789,13 +10789,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="D4" t="n">
-        <v>26.25</v>
+        <v>69</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.5111111111111111</v>
       </c>
     </row>
     <row r="5">
@@ -10806,13 +10806,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2</v>
+        <v>0.1555555555555556</v>
       </c>
     </row>
     <row r="6">
@@ -10823,13 +10823,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07647058823529412</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -10840,13 +10840,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09411764705882353</v>
+        <v>0.02222222222222222</v>
       </c>
     </row>
     <row r="8">
@@ -10857,13 +10857,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02352941176470588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -10889,10 +10889,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D10" t="n">
-        <v>114.5</v>
+        <v>127.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -10948,13 +10948,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.1162790697674419</v>
       </c>
     </row>
     <row r="3">
@@ -10965,13 +10965,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6483516483516484</v>
+        <v>0.1511627906976744</v>
       </c>
     </row>
     <row r="4">
@@ -10982,13 +10982,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D4" t="n">
-        <v>32.25</v>
+        <v>36</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2362637362637363</v>
+        <v>0.2790697674418605</v>
       </c>
     </row>
     <row r="5">
@@ -10999,13 +10999,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>22.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.2616279069767442</v>
       </c>
     </row>
     <row r="6">
@@ -11016,13 +11016,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01648351648351648</v>
+        <v>0.02325581395348837</v>
       </c>
     </row>
     <row r="7">
@@ -11033,13 +11033,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02197802197802198</v>
+        <v>0.1220930232558139</v>
       </c>
     </row>
     <row r="8">
@@ -11050,13 +11050,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.04651162790697674</v>
       </c>
     </row>
     <row r="9">
@@ -11082,10 +11082,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D10" t="n">
-        <v>158</v>
+        <v>105.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -11141,13 +11141,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.03896103896103896</v>
       </c>
     </row>
     <row r="3">
@@ -11158,13 +11158,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0989010989010989</v>
+        <v>0.2792207792207792</v>
       </c>
     </row>
     <row r="4">
@@ -11175,13 +11175,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>45.75</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3351648351648351</v>
+        <v>0.2597402597402597</v>
       </c>
     </row>
     <row r="5">
@@ -11192,13 +11192,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>21.5</v>
+        <v>13.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2362637362637363</v>
+        <v>0.1753246753246753</v>
       </c>
     </row>
     <row r="6">
@@ -11209,13 +11209,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>4.25</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09340659340659341</v>
+        <v>0.03896103896103896</v>
       </c>
     </row>
     <row r="7">
@@ -11226,13 +11226,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="8">
@@ -11243,13 +11243,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02197802197802198</v>
+        <v>0.06493506493506493</v>
       </c>
     </row>
     <row r="9">
@@ -11275,10 +11275,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="D10" t="n">
-        <v>89.5</v>
+        <v>94</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -11334,13 +11334,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.103448275862069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -11351,13 +11351,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09770114942528736</v>
+        <v>0.3518518518518519</v>
       </c>
     </row>
     <row r="4">
@@ -11368,13 +11368,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
-        <v>45</v>
+        <v>47.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3448275862068966</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="5">
@@ -11385,13 +11385,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>21.5</v>
+        <v>8.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2471264367816092</v>
+        <v>0.1049382716049383</v>
       </c>
     </row>
     <row r="6">
@@ -11402,13 +11402,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08045977011494253</v>
+        <v>0.0308641975308642</v>
       </c>
     </row>
     <row r="7">
@@ -11419,13 +11419,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06896551724137931</v>
+        <v>0.1234567901234568</v>
       </c>
     </row>
     <row r="8">
@@ -11436,13 +11436,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05747126436781609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -11468,10 +11468,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D10" t="n">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -11527,13 +11527,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1184210526315789</v>
+        <v>0.2823529411764706</v>
       </c>
     </row>
     <row r="3">
@@ -11544,13 +11544,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2960526315789473</v>
+        <v>0.1294117647058824</v>
       </c>
     </row>
     <row r="4">
@@ -11561,13 +11561,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>39</v>
+        <v>14.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.1117647058823529</v>
       </c>
     </row>
     <row r="5">
@@ -11578,13 +11578,13 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
-        <v>8</v>
-      </c>
       <c r="E5" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.1882352941176471</v>
       </c>
     </row>
     <row r="6">
@@ -11595,13 +11595,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>3.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.006578947368421052</v>
+        <v>0.07647058823529412</v>
       </c>
     </row>
     <row r="7">
@@ -11612,13 +11612,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.1411764705882353</v>
       </c>
     </row>
     <row r="8">
@@ -11629,13 +11629,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.07058823529411765</v>
       </c>
     </row>
     <row r="9">
@@ -11661,10 +11661,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="D10" t="n">
-        <v>110.25</v>
+        <v>103.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -11720,13 +11720,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.1325301204819277</v>
       </c>
     </row>
     <row r="3">
@@ -11737,13 +11737,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D3" t="n">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2202380952380952</v>
+        <v>0.427710843373494</v>
       </c>
     </row>
     <row r="4">
@@ -11754,13 +11754,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>37.5</v>
+        <v>26.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2976190476190476</v>
+        <v>0.2108433734939759</v>
       </c>
     </row>
     <row r="5">
@@ -11771,13 +11771,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>9.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1144578313253012</v>
       </c>
     </row>
     <row r="6">
@@ -11788,13 +11788,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>0.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.119047619047619</v>
+        <v>0.01807228915662651</v>
       </c>
     </row>
     <row r="7">
@@ -11805,13 +11805,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1726190476190476</v>
+        <v>0.02409638554216868</v>
       </c>
     </row>
     <row r="8">
@@ -11822,13 +11822,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.07228915662650602</v>
       </c>
     </row>
     <row r="9">
@@ -11854,13 +11854,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D10" t="n">
-        <v>93.5</v>
+        <v>129.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11913,13 +11913,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1234567901234568</v>
+        <v>0.0119047619047619</v>
       </c>
     </row>
     <row r="3">
@@ -11930,13 +11930,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1975308641975309</v>
+        <v>0.2261904761904762</v>
       </c>
     </row>
     <row r="4">
@@ -11947,13 +11947,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2716049382716049</v>
+        <v>0.4047619047619048</v>
       </c>
     </row>
     <row r="5">
@@ -11964,13 +11964,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.2321428571428572</v>
       </c>
     </row>
     <row r="6">
@@ -11981,13 +11981,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06172839506172839</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -11998,13 +11998,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09876543209876543</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="8">
@@ -12015,13 +12015,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06172839506172839</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="9">
@@ -12047,10 +12047,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>102.5</v>
+        <v>112.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -12106,13 +12106,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06179775280898876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -12123,13 +12123,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1797752808988764</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="4">
@@ -12140,13 +12140,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>49.5</v>
+        <v>17.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3707865168539326</v>
+        <v>0.1369047619047619</v>
       </c>
     </row>
     <row r="5">
@@ -12157,13 +12157,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1235955056179775</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -12174,13 +12174,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07865168539325842</v>
+        <v>0.02976190476190476</v>
       </c>
     </row>
     <row r="7">
@@ -12191,13 +12191,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1292134831460674</v>
+        <v>0.1845238095238095</v>
       </c>
     </row>
     <row r="8">
@@ -12208,13 +12208,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05617977528089887</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="9">
@@ -12240,10 +12240,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -12316,13 +12316,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1829268292682927</v>
+        <v>0.3975903614457831</v>
       </c>
     </row>
     <row r="4">
@@ -12333,13 +12333,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D4" t="n">
-        <v>27.75</v>
+        <v>44.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.225609756097561</v>
+        <v>0.3554216867469879</v>
       </c>
     </row>
     <row r="5">
@@ -12350,13 +12350,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1402439024390244</v>
+        <v>0.1144578313253012</v>
       </c>
     </row>
     <row r="6">
@@ -12367,13 +12367,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1158536585365854</v>
+        <v>0.0783132530120482</v>
       </c>
     </row>
     <row r="7">
@@ -12384,13 +12384,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3109756097560976</v>
+        <v>0.03012048192771084</v>
       </c>
     </row>
     <row r="8">
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02439024390243903</v>
+        <v>0.02409638554216868</v>
       </c>
     </row>
     <row r="9">
@@ -12433,10 +12433,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D10" t="n">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -12492,13 +12492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09523809523809523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -12509,13 +12509,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2202380952380952</v>
+        <v>0.0989010989010989</v>
       </c>
     </row>
     <row r="4">
@@ -12526,13 +12526,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D4" t="n">
-        <v>23.25</v>
+        <v>45.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1845238095238095</v>
+        <v>0.3351648351648351</v>
       </c>
     </row>
     <row r="5">
@@ -12543,13 +12543,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>21.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2261904761904762</v>
+        <v>0.2362637362637363</v>
       </c>
     </row>
     <row r="6">
@@ -12560,13 +12560,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>4.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.09340659340659341</v>
       </c>
     </row>
     <row r="7">
@@ -12577,13 +12577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="8">
@@ -12594,13 +12594,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.02197802197802198</v>
       </c>
     </row>
     <row r="9">
@@ -12626,13 +12626,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="D10" t="n">
-        <v>97.25</v>
+        <v>89.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Extracted Data/VRU Headform - Prediction tables/2022_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Prediction tables/2022_cars_combined.xlsx
@@ -7,69 +7,69 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BMW 2 Series Coupé" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Lexus NX" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Renault Megane E-Tech" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Volkswagen Polo" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Volkswagen Taigo" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Dacia Jogger" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="DS 4" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Honda HR-V" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Kia EV6" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Mercedes-Benz C-Class" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Peugeot 308" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Volvo C40 Recharge" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="VW Multivan" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Alfa Romeo Tonale" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="BMW i4" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Cupra Born" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Kia Sportage" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Mercedes-Benz T-Class" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Toyota Aygo X" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Genesis GV60" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Kia Niro" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="ORA FUNKY CAT" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Tesla Model Y" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="WEY Coffee 01" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="BMW 2 Series Active Tourer" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="BMW X1" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="BYD Atto 3" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Citroën C5 X" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Mazda MAZDA CX-60" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Mercedes-EQ EQE" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="Mobilize Limo" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="SEAT Arona" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="Seat Ibiza" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="Volkswagen Golf" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="DS 9" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="Honda Civic" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="Hyundai IONIQ 6" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="Honda HR-V" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Dacia Jogger" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="DS 4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Volvo C40 Recharge" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Mercedes-Benz C-Class" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Kia EV6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="VW Multivan" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Peugeot 308" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ORA FUNKY CAT" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="WEY Coffee 01" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Kia Niro" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Genesis GV60" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Tesla Model Y" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Land Rover Discovery Sport" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="CHERY OMODA5" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Volkswagen ID. Buzz" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Volkswagen Touran" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Lexus RX" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Skoda Octavia" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="MG 4 Electric" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Ford Ranger" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Lucid Air" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Jeep Grand Cherokee" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Volkswagen Amarok" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Mercedes-Benz GLC" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Maxus MIFA 9" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Ford Puma" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="BMW 2 Series Coupé" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Renault Megane E-Tech" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Volkswagen Polo" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Lexus NX" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="Volkswagen Taigo" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="Nissan Ariya" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="smart #1" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="Hyundai IONIQ 6" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="Toyota Corolla Cross" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="Land Rover Range Rover Sport" sheetId="37" state="visible" r:id="rId37"/>
     <sheet name="Isuzu D-Max Crew Cab" sheetId="38" state="visible" r:id="rId38"/>
     <sheet name="NIO ET7" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="Nissan Ariya" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="Nissan X-Trail" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="Land Rover Range Rover" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="Land Rover Range Rover Sport" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="Renault Austral" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="smart #1" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="Tesla Model S" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="Land Rover Range Rover" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="Renault Austral" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="DS 9" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="Tesla Model S" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="Honda Civic" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="Nissan X-Trail" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="WEY Coffee 02" sheetId="46" state="visible" r:id="rId46"/>
     <sheet name="Toyota bZ4X" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="Toyota Corolla Cross" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="WEY Coffee 02" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="CHERY OMODA5" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="Ford Puma" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="Ford Ranger" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet name="Jeep Grand Cherokee" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet name="Land Rover Discovery Sport" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet name="Lexus RX" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet name="Lucid Air" sheetId="56" state="visible" r:id="rId56"/>
-    <sheet name="Maxus MIFA 9" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet name="Mercedes-Benz GLC" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet name="MG 4 Electric" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet name="Volkswagen Amarok" sheetId="60" state="visible" r:id="rId60"/>
-    <sheet name="Volkswagen ID. Buzz" sheetId="61" state="visible" r:id="rId61"/>
-    <sheet name="Volkswagen Touran" sheetId="62" state="visible" r:id="rId62"/>
-    <sheet name="Skoda Octavia" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet name="Seat Ibiza" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="BMW X1" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="Mobilize Limo" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="Mercedes-EQ EQE" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="BYD Atto 3" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="Citroën C5 X" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="SEAT Arona" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="Mazda MAZDA CX-60" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="BMW 2 Series Active Tourer" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="Volkswagen Golf" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="Kia Sportage" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="BMW i4" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="Mercedes-Benz T-Class" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="Toyota Aygo X" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet name="Alfa Romeo Tonale" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet name="Cupra Born" sheetId="63" state="visible" r:id="rId63"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="D3" t="n">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="E3" t="n">
-        <v>0.611764705882353</v>
+        <v>0.3975903614457831</v>
       </c>
     </row>
     <row r="4">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D4" t="n">
-        <v>24.75</v>
+        <v>44.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1941176470588235</v>
+        <v>0.3554216867469879</v>
       </c>
     </row>
     <row r="5">
@@ -583,7 +583,7 @@
         <v>9.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1117647058823529</v>
+        <v>0.1144578313253012</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>0.75</v>
+        <v>3.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01764705882352941</v>
+        <v>0.0783132530120482</v>
       </c>
     </row>
     <row r="7">
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06470588235294118</v>
+        <v>0.03012048192771084</v>
       </c>
     </row>
     <row r="8">
@@ -628,13 +628,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.02409638554216868</v>
       </c>
     </row>
     <row r="9">
@@ -660,10 +660,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D10" t="n">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.2102272727272727</v>
       </c>
     </row>
     <row r="4">
@@ -753,13 +753,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D4" t="n">
-        <v>16.5</v>
+        <v>54.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.130952380952381</v>
+        <v>0.4147727272727273</v>
       </c>
     </row>
     <row r="5">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>6.5</v>
+        <v>16.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07738095238095238</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="6">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.07954545454545454</v>
       </c>
     </row>
     <row r="7">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.1079545454545455</v>
       </c>
     </row>
     <row r="8">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0119047619047619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -853,10 +853,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D10" t="n">
-        <v>144</v>
+        <v>111.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1829268292682927</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="4">
@@ -946,13 +946,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>27.75</v>
+        <v>42</v>
       </c>
       <c r="E4" t="n">
-        <v>0.225609756097561</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -963,13 +963,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1402439024390244</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -980,13 +980,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1158536585365854</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3109756097560976</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -1014,13 +1014,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02439024390243903</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="9">
@@ -1046,13 +1046,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>74</v>
+        <v>97.25</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3588235294117647</v>
+        <v>0.1758241758241758</v>
       </c>
     </row>
     <row r="4">
@@ -1139,13 +1139,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2117647058823529</v>
+        <v>0.3296703296703297</v>
       </c>
     </row>
     <row r="5">
@@ -1156,13 +1156,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2117647058823529</v>
+        <v>0.2032967032967033</v>
       </c>
     </row>
     <row r="6">
@@ -1179,7 +1179,7 @@
         <v>5.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1235294117647059</v>
+        <v>0.1153846153846154</v>
       </c>
     </row>
     <row r="7">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09411764705882353</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="8">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.03296703296703297</v>
       </c>
     </row>
     <row r="9">
@@ -1239,13 +1239,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D10" t="n">
-        <v>111.25</v>
+        <v>100.75</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1298,13 +1298,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06179775280898876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1315,13 +1315,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1797752808988764</v>
+        <v>0.3297872340425532</v>
       </c>
     </row>
     <row r="4">
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D4" t="n">
-        <v>49.5</v>
+        <v>51</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3707865168539326</v>
+        <v>0.3617021276595745</v>
       </c>
     </row>
     <row r="5">
@@ -1349,13 +1349,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1235955056179775</v>
+        <v>0.06914893617021277</v>
       </c>
     </row>
     <row r="6">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07865168539325842</v>
+        <v>0.04787234042553191</v>
       </c>
     </row>
     <row r="7">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1292134831460674</v>
+        <v>0.1595744680851064</v>
       </c>
     </row>
     <row r="8">
@@ -1400,13 +1400,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05617977528089887</v>
+        <v>0.03191489361702127</v>
       </c>
     </row>
     <row r="9">
@@ -1432,10 +1432,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D10" t="n">
-        <v>107</v>
+        <v>121.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1508,13 +1508,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="D3" t="n">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2202380952380952</v>
+        <v>0.5059523809523809</v>
       </c>
     </row>
     <row r="4">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>37.5</v>
+        <v>28.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2976190476190476</v>
+        <v>0.2261904761904762</v>
       </c>
     </row>
     <row r="5">
@@ -1542,13 +1542,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.119047619047619</v>
       </c>
     </row>
     <row r="6">
@@ -1559,13 +1559,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.119047619047619</v>
+        <v>0.07738095238095238</v>
       </c>
     </row>
     <row r="7">
@@ -1576,13 +1576,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1726190476190476</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="8">
@@ -1593,13 +1593,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02380952380952381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1628,10 +1628,10 @@
         <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>93.5</v>
+        <v>126.75</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1701,13 +1701,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6483516483516484</v>
+        <v>0.2848837209302326</v>
       </c>
     </row>
     <row r="4">
@@ -1718,13 +1718,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
-        <v>32.25</v>
+        <v>35.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2362637362637363</v>
+        <v>0.2732558139534884</v>
       </c>
     </row>
     <row r="5">
@@ -1735,13 +1735,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.2034883720930233</v>
       </c>
     </row>
     <row r="6">
@@ -1752,13 +1752,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.75</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01648351648351648</v>
+        <v>0.09302325581395349</v>
       </c>
     </row>
     <row r="7">
@@ -1769,13 +1769,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02197802197802198</v>
+        <v>0.1104651162790698</v>
       </c>
     </row>
     <row r="8">
@@ -1786,13 +1786,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.03488372093023256</v>
       </c>
     </row>
     <row r="9">
@@ -1818,13 +1818,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D10" t="n">
-        <v>158</v>
+        <v>105.75</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1877,13 +1877,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1234567901234568</v>
+        <v>0.2823529411764706</v>
       </c>
     </row>
     <row r="3">
@@ -1894,13 +1894,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1975308641975309</v>
+        <v>0.1294117647058824</v>
       </c>
     </row>
     <row r="4">
@@ -1911,13 +1911,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>14.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2716049382716049</v>
+        <v>0.1117647058823529</v>
       </c>
     </row>
     <row r="5">
@@ -1928,13 +1928,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.1882352941176471</v>
       </c>
     </row>
     <row r="6">
@@ -1945,13 +1945,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06172839506172839</v>
+        <v>0.07647058823529412</v>
       </c>
     </row>
     <row r="7">
@@ -1962,13 +1962,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09876543209876543</v>
+        <v>0.1411764705882353</v>
       </c>
     </row>
     <row r="8">
@@ -1979,13 +1979,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06172839506172839</v>
+        <v>0.07058823529411765</v>
       </c>
     </row>
     <row r="9">
@@ -2011,10 +2011,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D10" t="n">
-        <v>102.5</v>
+        <v>103.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2070,13 +2070,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.1325301204819277</v>
       </c>
     </row>
     <row r="3">
@@ -2087,13 +2087,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D3" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4</v>
+        <v>0.427710843373494</v>
       </c>
     </row>
     <row r="4">
@@ -2110,7 +2110,7 @@
         <v>26.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.2108433734939759</v>
       </c>
     </row>
     <row r="5">
@@ -2121,13 +2121,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2</v>
+        <v>0.1144578313253012</v>
       </c>
     </row>
     <row r="6">
@@ -2138,13 +2138,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>3.25</v>
+        <v>0.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07647058823529412</v>
+        <v>0.01807228915662651</v>
       </c>
     </row>
     <row r="7">
@@ -2155,13 +2155,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09411764705882353</v>
+        <v>0.02409638554216868</v>
       </c>
     </row>
     <row r="8">
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02352941176470588</v>
+        <v>0.07228915662650602</v>
       </c>
     </row>
     <row r="9">
@@ -2204,10 +2204,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D10" t="n">
-        <v>114.5</v>
+        <v>129.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2263,13 +2263,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.103448275862069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2280,13 +2280,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09770114942528736</v>
+        <v>0.3791208791208791</v>
       </c>
     </row>
     <row r="4">
@@ -2297,13 +2297,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D4" t="n">
-        <v>45</v>
+        <v>48.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3448275862068966</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="5">
@@ -2314,13 +2314,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>21.5</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2471264367816092</v>
+        <v>0.1208791208791209</v>
       </c>
     </row>
     <row r="6">
@@ -2331,13 +2331,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08045977011494253</v>
+        <v>0.1043956043956044</v>
       </c>
     </row>
     <row r="7">
@@ -2348,13 +2348,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06896551724137931</v>
+        <v>0.02747252747252747</v>
       </c>
     </row>
     <row r="8">
@@ -2365,13 +2365,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05747126436781609</v>
+        <v>0.01098901098901099</v>
       </c>
     </row>
     <row r="9">
@@ -2397,10 +2397,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D10" t="n">
-        <v>105</v>
+        <v>133.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2456,13 +2456,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1184210526315789</v>
+        <v>0.0119047619047619</v>
       </c>
     </row>
     <row r="3">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2960526315789473</v>
+        <v>0.2261904761904762</v>
       </c>
     </row>
     <row r="4">
@@ -2490,13 +2490,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D4" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.4047619047619048</v>
       </c>
     </row>
     <row r="5">
@@ -2507,13 +2507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>19.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.2321428571428572</v>
       </c>
     </row>
     <row r="6">
@@ -2524,13 +2524,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.006578947368421052</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -2541,13 +2541,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="8">
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="9">
@@ -2590,10 +2590,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>110.25</v>
+        <v>112.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2649,13 +2649,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.03896103896103896</v>
       </c>
     </row>
     <row r="3">
@@ -2666,13 +2666,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3588235294117647</v>
+        <v>0.2792207792207792</v>
       </c>
     </row>
     <row r="4">
@@ -2683,13 +2683,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3058823529411765</v>
+        <v>0.2597402597402597</v>
       </c>
     </row>
     <row r="5">
@@ -2700,13 +2700,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1823529411764706</v>
+        <v>0.1753246753246753</v>
       </c>
     </row>
     <row r="6">
@@ -2717,13 +2717,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09411764705882353</v>
+        <v>0.03896103896103896</v>
       </c>
     </row>
     <row r="7">
@@ -2734,13 +2734,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03529411764705882</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="8">
@@ -2751,13 +2751,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02352941176470588</v>
+        <v>0.06493506493506493</v>
       </c>
     </row>
     <row r="9">
@@ -2783,10 +2783,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D10" t="n">
-        <v>119.5</v>
+        <v>94</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2842,13 +2842,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.1162790697674419</v>
       </c>
     </row>
     <row r="3">
@@ -2859,13 +2859,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1758241758241758</v>
+        <v>0.1511627906976744</v>
       </c>
     </row>
     <row r="4">
@@ -2876,13 +2876,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D4" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3296703296703297</v>
+        <v>0.2790697674418605</v>
       </c>
     </row>
     <row r="5">
@@ -2893,13 +2893,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>18.5</v>
+        <v>22.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2032967032967033</v>
+        <v>0.2616279069767442</v>
       </c>
     </row>
     <row r="6">
@@ -2910,13 +2910,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>5.25</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.02325581395348837</v>
       </c>
     </row>
     <row r="7">
@@ -2927,13 +2927,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1220930232558139</v>
       </c>
     </row>
     <row r="8">
@@ -2944,13 +2944,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03296703296703297</v>
+        <v>0.04651162790697674</v>
       </c>
     </row>
     <row r="9">
@@ -2976,13 +2976,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D10" t="n">
-        <v>100.75</v>
+        <v>105.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.3518518518518519</v>
       </c>
     </row>
     <row r="4">
@@ -3069,13 +3069,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
-        <v>42</v>
+        <v>47.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="5">
@@ -3086,13 +3086,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>17.5</v>
+        <v>8.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.1049382716049383</v>
       </c>
     </row>
     <row r="6">
@@ -3103,13 +3103,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.0308641975308642</v>
       </c>
     </row>
     <row r="7">
@@ -3120,13 +3120,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1234567901234568</v>
       </c>
     </row>
     <row r="8">
@@ -3137,13 +3137,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3169,13 +3169,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D10" t="n">
-        <v>97.25</v>
+        <v>114</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3228,13 +3228,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.03645833333333334</v>
       </c>
     </row>
     <row r="3">
@@ -3245,13 +3245,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2202380952380952</v>
+        <v>0.2708333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -3262,13 +3262,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>23.25</v>
+        <v>42</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1845238095238095</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -3279,13 +3279,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2261904761904762</v>
+        <v>0.1302083333333333</v>
       </c>
     </row>
     <row r="6">
@@ -3296,13 +3296,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -3313,13 +3313,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.21875</v>
       </c>
     </row>
     <row r="8">
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="9">
@@ -3362,13 +3362,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="D10" t="n">
-        <v>97.25</v>
+        <v>114.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3444,7 +3444,7 @@
         <v>62</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3297872340425532</v>
+        <v>0.3780487804878049</v>
       </c>
     </row>
     <row r="4">
@@ -3455,13 +3455,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>51</v>
+        <v>30.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3617021276595745</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -3472,13 +3472,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>6.5</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06914893617021277</v>
+        <v>0.1707317073170732</v>
       </c>
     </row>
     <row r="6">
@@ -3489,13 +3489,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04787234042553191</v>
+        <v>0.09146341463414634</v>
       </c>
     </row>
     <row r="7">
@@ -3506,13 +3506,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1595744680851064</v>
+        <v>0.1097560975609756</v>
       </c>
     </row>
     <row r="8">
@@ -3523,13 +3523,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03191489361702127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3555,10 +3555,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="D10" t="n">
-        <v>121.75</v>
+        <v>110.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -3631,13 +3631,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2102272727272727</v>
+        <v>0.3518518518518519</v>
       </c>
     </row>
     <row r="4">
@@ -3648,13 +3648,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
-        <v>54.75</v>
+        <v>47.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4147727272727273</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="5">
@@ -3665,13 +3665,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>16.5</v>
+        <v>8.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1875</v>
+        <v>0.1049382716049383</v>
       </c>
     </row>
     <row r="6">
@@ -3682,13 +3682,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07954545454545454</v>
+        <v>0.0308641975308642</v>
       </c>
     </row>
     <row r="7">
@@ -3699,13 +3699,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1079545454545455</v>
+        <v>0.1234567901234568</v>
       </c>
     </row>
     <row r="8">
@@ -3748,10 +3748,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D10" t="n">
-        <v>111.75</v>
+        <v>114</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -3807,13 +3807,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05357142857142857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3824,13 +3824,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D3" t="n">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3928571428571428</v>
+        <v>0.2277777777777778</v>
       </c>
     </row>
     <row r="4">
@@ -3841,13 +3841,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.5111111111111111</v>
       </c>
     </row>
     <row r="5">
@@ -3858,13 +3858,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>6.5</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07738095238095238</v>
+        <v>0.1555555555555556</v>
       </c>
     </row>
     <row r="6">
@@ -3875,13 +3875,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -3892,13 +3892,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1785714285714286</v>
+        <v>0.02222222222222222</v>
       </c>
     </row>
     <row r="8">
@@ -3909,13 +3909,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04761904761904762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3941,10 +3941,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D10" t="n">
-        <v>110</v>
+        <v>127.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -4017,13 +4017,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4753086419753086</v>
+        <v>0.1436781609195402</v>
       </c>
     </row>
     <row r="4">
@@ -4034,13 +4034,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
-        <v>39.75</v>
+        <v>47.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3271604938271605</v>
+        <v>0.3620689655172414</v>
       </c>
     </row>
     <row r="5">
@@ -4051,13 +4051,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>15.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04938271604938271</v>
+        <v>0.1781609195402299</v>
       </c>
     </row>
     <row r="6">
@@ -4068,13 +4068,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04320987654320987</v>
+        <v>0.09195402298850575</v>
       </c>
     </row>
     <row r="7">
@@ -4085,13 +4085,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.1781609195402299</v>
       </c>
     </row>
     <row r="8">
@@ -4102,13 +4102,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01234567901234568</v>
+        <v>0.04597701149425287</v>
       </c>
     </row>
     <row r="9">
@@ -4134,10 +4134,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D10" t="n">
-        <v>122.5</v>
+        <v>91.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -4193,13 +4193,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.04320987654320987</v>
       </c>
     </row>
     <row r="3">
@@ -4210,13 +4210,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2151162790697674</v>
+        <v>0.1790123456790123</v>
       </c>
     </row>
     <row r="4">
@@ -4227,13 +4227,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>47.25</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3662790697674418</v>
+        <v>0.2469135802469136</v>
       </c>
     </row>
     <row r="5">
@@ -4244,13 +4244,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1802325581395349</v>
+        <v>0.2160493827160494</v>
       </c>
     </row>
     <row r="6">
@@ -4261,13 +4261,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0872093023255814</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="7">
@@ -4278,13 +4278,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1162790697674419</v>
+        <v>0.191358024691358</v>
       </c>
     </row>
     <row r="8">
@@ -4295,13 +4295,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03488372093023256</v>
+        <v>0.04938271604938271</v>
       </c>
     </row>
     <row r="9">
@@ -4327,10 +4327,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D10" t="n">
-        <v>103.5</v>
+        <v>86.5</v>
       </c>
       <c r="E10" t="n">
         <v>0.9999999999999999</v>
@@ -4403,13 +4403,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D3" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6</v>
+        <v>0.611764705882353</v>
       </c>
     </row>
     <row r="4">
@@ -4437,13 +4437,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>9.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01176470588235294</v>
+        <v>0.1117647058823529</v>
       </c>
     </row>
     <row r="6">
@@ -4454,13 +4454,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02352941176470588</v>
+        <v>0.01764705882352941</v>
       </c>
     </row>
     <row r="7">
@@ -4471,13 +4471,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.06470588235294118</v>
       </c>
     </row>
     <row r="8">
@@ -4488,13 +4488,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02352941176470588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4523,7 +4523,7 @@
         <v>170</v>
       </c>
       <c r="D10" t="n">
-        <v>128.75</v>
+        <v>139</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -4579,13 +4579,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.05357142857142857</v>
       </c>
     </row>
     <row r="3">
@@ -4596,13 +4596,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6158536585365854</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -4613,13 +4613,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>30.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2439024390243902</v>
+        <v>0.244047619047619</v>
       </c>
     </row>
     <row r="5">
@@ -4630,13 +4630,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07317073170731707</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="6">
@@ -4647,13 +4647,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06707317073170732</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -4664,13 +4664,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="8">
@@ -4681,13 +4681,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.05952380952380952</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>139.75</v>
+        <v>100.5</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4772,13 +4772,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05357142857142857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4789,13 +4789,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="D3" t="n">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="4">
@@ -4806,13 +4806,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>30.75</v>
+        <v>17.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.244047619047619</v>
+        <v>0.1369047619047619</v>
       </c>
     </row>
     <row r="5">
@@ -4823,13 +4823,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>24</v>
+        <v>3.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -4840,13 +4840,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.02976190476190476</v>
       </c>
     </row>
     <row r="7">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.1845238095238095</v>
       </c>
     </row>
     <row r="8">
@@ -4874,13 +4874,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05952380952380952</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="9">
@@ -4909,10 +4909,10 @@
         <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>100.5</v>
+        <v>120</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4965,13 +4965,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.1012658227848101</v>
       </c>
     </row>
     <row r="3">
@@ -4982,13 +4982,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4402173913043478</v>
+        <v>0.2151898734177215</v>
       </c>
     </row>
     <row r="4">
@@ -4999,13 +4999,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D4" t="n">
-        <v>42</v>
+        <v>39.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.3354430379746836</v>
       </c>
     </row>
     <row r="5">
@@ -5016,13 +5016,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09239130434782608</v>
+        <v>0.1518987341772152</v>
       </c>
     </row>
     <row r="6">
@@ -5033,13 +5033,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02717391304347826</v>
+        <v>0.08227848101265822</v>
       </c>
     </row>
     <row r="7">
@@ -5050,13 +5050,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1032608695652174</v>
+        <v>0.05063291139240506</v>
       </c>
     </row>
     <row r="8">
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03260869565217391</v>
+        <v>0.06329113924050633</v>
       </c>
     </row>
     <row r="9">
@@ -5099,10 +5099,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="D10" t="n">
-        <v>132.75</v>
+        <v>105</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -5158,13 +5158,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05294117647058823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1411764705882353</v>
+        <v>0.3588235294117647</v>
       </c>
     </row>
     <row r="4">
@@ -5192,13 +5192,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D4" t="n">
-        <v>42.75</v>
+        <v>39</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3352941176470588</v>
+        <v>0.3058823529411765</v>
       </c>
     </row>
     <row r="5">
@@ -5209,13 +5209,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1529411764705882</v>
+        <v>0.1823529411764706</v>
       </c>
     </row>
     <row r="6">
@@ -5226,13 +5226,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.09411764705882353</v>
       </c>
     </row>
     <row r="7">
@@ -5243,13 +5243,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1823529411764706</v>
+        <v>0.03529411764705882</v>
       </c>
     </row>
     <row r="8">
@@ -5260,13 +5260,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04705882352941176</v>
+        <v>0.02352941176470588</v>
       </c>
     </row>
     <row r="9">
@@ -5295,7 +5295,7 @@
         <v>170</v>
       </c>
       <c r="D10" t="n">
-        <v>92.5</v>
+        <v>119.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -5351,13 +5351,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.04605263157894737</v>
       </c>
     </row>
     <row r="3">
@@ -5368,13 +5368,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2345679012345679</v>
+        <v>0.2302631578947368</v>
       </c>
     </row>
     <row r="4">
@@ -5385,13 +5385,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>34.5</v>
+        <v>37.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2839506172839506</v>
+        <v>0.3289473684210527</v>
       </c>
     </row>
     <row r="5">
@@ -5402,13 +5402,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2037037037037037</v>
+        <v>0.1907894736842105</v>
       </c>
     </row>
     <row r="6">
@@ -5419,13 +5419,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08024691358024691</v>
+        <v>0.1118421052631579</v>
       </c>
     </row>
     <row r="7">
@@ -5436,13 +5436,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.03947368421052631</v>
       </c>
     </row>
     <row r="8">
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04938271604938271</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="9">
@@ -5485,13 +5485,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D10" t="n">
-        <v>101.25</v>
+        <v>98.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5544,13 +5544,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5561,13 +5561,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1604938271604938</v>
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="4">
@@ -5578,13 +5578,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D4" t="n">
-        <v>32.25</v>
+        <v>46.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2654320987654321</v>
+        <v>0.3647058823529412</v>
       </c>
     </row>
     <row r="5">
@@ -5595,13 +5595,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>19.5</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2407407407407407</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="6">
@@ -5612,13 +5612,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.08823529411764706</v>
       </c>
     </row>
     <row r="7">
@@ -5635,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1049382716049383</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
@@ -5646,13 +5646,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06172839506172839</v>
+        <v>0.03529411764705882</v>
       </c>
     </row>
     <row r="9">
@@ -5678,10 +5678,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D10" t="n">
-        <v>98</v>
+        <v>110.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -5737,13 +5737,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05</v>
+        <v>0.01785714285714286</v>
       </c>
     </row>
     <row r="3">
@@ -5754,13 +5754,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E3" t="n">
-        <v>0.26875</v>
+        <v>0.2261904761904762</v>
       </c>
     </row>
     <row r="4">
@@ -5771,13 +5771,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n">
-        <v>50.25</v>
+        <v>43.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.41875</v>
+        <v>0.3452380952380952</v>
       </c>
     </row>
     <row r="5">
@@ -5788,13 +5788,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>0.125</v>
+        <v>0.1904761904761905</v>
       </c>
     </row>
     <row r="6">
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05</v>
+        <v>0.08928571428571429</v>
       </c>
     </row>
     <row r="7">
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0375</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="8">
@@ -5839,13 +5839,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="9">
@@ -5871,10 +5871,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>113.25</v>
+        <v>104.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -5930,13 +5930,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.0449438202247191</v>
       </c>
     </row>
     <row r="3">
@@ -5947,13 +5947,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5176470588235295</v>
+        <v>0.03370786516853932</v>
       </c>
     </row>
     <row r="4">
@@ -5964,13 +5964,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>23.25</v>
+        <v>18.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1823529411764706</v>
+        <v>0.1404494382022472</v>
       </c>
     </row>
     <row r="5">
@@ -5981,13 +5981,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>32.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07058823529411765</v>
+        <v>0.3651685393258427</v>
       </c>
     </row>
     <row r="6">
@@ -5998,13 +5998,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>1.25</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.2022471910112359</v>
       </c>
     </row>
     <row r="7">
@@ -6015,13 +6015,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1797752808988764</v>
       </c>
     </row>
     <row r="8">
@@ -6032,13 +6032,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02352941176470588</v>
+        <v>0.03370786516853932</v>
       </c>
     </row>
     <row r="9">
@@ -6064,13 +6064,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D10" t="n">
-        <v>118.5</v>
+        <v>74.25</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6140,13 +6140,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D3" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4176470588235294</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -6157,13 +6157,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n">
-        <v>45.75</v>
+        <v>43.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3588235294117647</v>
+        <v>0.3452380952380952</v>
       </c>
     </row>
     <row r="5">
@@ -6174,13 +6174,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07058823529411765</v>
+        <v>0.1130952380952381</v>
       </c>
     </row>
     <row r="6">
@@ -6191,13 +6191,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04705882352941176</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="7">
@@ -6208,13 +6208,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07058823529411765</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="8">
@@ -6225,13 +6225,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03529411764705882</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="9">
@@ -6257,13 +6257,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>124.75</v>
+        <v>131</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6316,13 +6316,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0449438202247191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6333,13 +6333,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03370786516853932</v>
+        <v>0.3166666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -6350,13 +6350,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>18.75</v>
+        <v>32.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1404494382022472</v>
+        <v>0.2388888888888889</v>
       </c>
     </row>
     <row r="5">
@@ -6367,13 +6367,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>32.5</v>
+        <v>20.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3651685393258427</v>
+        <v>0.2277777777777778</v>
       </c>
     </row>
     <row r="6">
@@ -6384,13 +6384,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>4.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2022471910112359</v>
+        <v>0.09444444444444444</v>
       </c>
     </row>
     <row r="7">
@@ -6401,13 +6401,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1797752808988764</v>
+        <v>0.1222222222222222</v>
       </c>
     </row>
     <row r="8">
@@ -6418,13 +6418,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03370786516853932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -6450,13 +6450,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D10" t="n">
-        <v>74.25</v>
+        <v>114</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6895,13 +6895,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1012658227848101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2151898734177215</v>
+        <v>0.3588235294117647</v>
       </c>
     </row>
     <row r="4">
@@ -6929,13 +6929,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>39.75</v>
+        <v>27</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3354430379746836</v>
+        <v>0.2117647058823529</v>
       </c>
     </row>
     <row r="5">
@@ -6946,13 +6946,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1518987341772152</v>
+        <v>0.2117647058823529</v>
       </c>
     </row>
     <row r="6">
@@ -6963,13 +6963,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08227848101265822</v>
+        <v>0.1235294117647059</v>
       </c>
     </row>
     <row r="7">
@@ -6980,13 +6980,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05063291139240506</v>
+        <v>0.09411764705882353</v>
       </c>
     </row>
     <row r="8">
@@ -6997,13 +6997,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06329113924050633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -7029,10 +7029,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="D10" t="n">
-        <v>105</v>
+        <v>111.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -7105,13 +7105,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D4" t="n">
-        <v>46.5</v>
+        <v>51.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3647058823529412</v>
+        <v>0.3833333333333334</v>
       </c>
     </row>
     <row r="5">
@@ -7139,13 +7139,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="6">
@@ -7156,13 +7156,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.06111111111111111</v>
       </c>
     </row>
     <row r="7">
@@ -7173,13 +7173,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="8">
@@ -7190,13 +7190,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03529411764705882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -7222,10 +7222,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D10" t="n">
-        <v>110.25</v>
+        <v>118.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3294117647058823</v>
+        <v>0.1904761904761905</v>
       </c>
     </row>
     <row r="4">
@@ -7315,13 +7315,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>43.5</v>
+        <v>32.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3411764705882353</v>
+        <v>0.2559523809523809</v>
       </c>
     </row>
     <row r="5">
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D5" t="n">
-        <v>10.5</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1235294117647059</v>
+        <v>0.3095238095238095</v>
       </c>
     </row>
     <row r="6">
@@ -7349,13 +7349,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07058823529411765</v>
+        <v>0.1011904761904762</v>
       </c>
     </row>
     <row r="7">
@@ -7366,13 +7366,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1117647058823529</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="8">
@@ -7383,13 +7383,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02352941176470588</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="9">
@@ -7415,13 +7415,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>113</v>
+        <v>94.5</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -7491,13 +7491,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="D3" t="n">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.5176470588235295</v>
       </c>
     </row>
     <row r="4">
@@ -7508,13 +7508,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>51.75</v>
+        <v>23.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3833333333333334</v>
+        <v>0.1823529411764706</v>
       </c>
     </row>
     <row r="5">
@@ -7525,13 +7525,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1777777777777778</v>
+        <v>0.07058823529411765</v>
       </c>
     </row>
     <row r="6">
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06111111111111111</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="7">
@@ -7559,13 +7559,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="8">
@@ -7576,13 +7576,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.02352941176470588</v>
       </c>
     </row>
     <row r="9">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D10" t="n">
         <v>118.5</v>
@@ -7684,13 +7684,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3166666666666667</v>
+        <v>0.3556701030927835</v>
       </c>
     </row>
     <row r="4">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>32.25</v>
+        <v>60</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2388888888888889</v>
+        <v>0.4123711340206185</v>
       </c>
     </row>
     <row r="5">
@@ -7718,13 +7718,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>20.5</v>
+        <v>5.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2277777777777778</v>
+        <v>0.05670103092783505</v>
       </c>
     </row>
     <row r="6">
@@ -7735,13 +7735,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>4.25</v>
+        <v>2.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09444444444444444</v>
+        <v>0.04639175257731959</v>
       </c>
     </row>
     <row r="7">
@@ -7752,13 +7752,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1222222222222222</v>
+        <v>0.1082474226804124</v>
       </c>
     </row>
     <row r="8">
@@ -7769,13 +7769,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.02061855670103093</v>
       </c>
     </row>
     <row r="9">
@@ -7801,10 +7801,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D10" t="n">
-        <v>114</v>
+        <v>136.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -7877,13 +7877,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.4176470588235294</v>
       </c>
     </row>
     <row r="4">
@@ -7894,13 +7894,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D4" t="n">
-        <v>32.25</v>
+        <v>45.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2559523809523809</v>
+        <v>0.3588235294117647</v>
       </c>
     </row>
     <row r="5">
@@ -7911,13 +7911,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3095238095238095</v>
+        <v>0.07058823529411765</v>
       </c>
     </row>
     <row r="6">
@@ -7928,13 +7928,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>4.25</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1011904761904762</v>
+        <v>0.04705882352941176</v>
       </c>
     </row>
     <row r="7">
@@ -7945,13 +7945,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.07058823529411765</v>
       </c>
     </row>
     <row r="8">
@@ -7968,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03529411764705882</v>
       </c>
     </row>
     <row r="9">
@@ -7994,10 +7994,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D10" t="n">
-        <v>94.5</v>
+        <v>124.75</v>
       </c>
       <c r="E10" t="n">
         <v>0.9999999999999999</v>
@@ -8053,13 +8053,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01785714285714286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -8070,13 +8070,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2261904761904762</v>
+        <v>0.3294117647058823</v>
       </c>
     </row>
     <row r="4">
@@ -8093,7 +8093,7 @@
         <v>43.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3452380952380952</v>
+        <v>0.3411764705882353</v>
       </c>
     </row>
     <row r="5">
@@ -8104,13 +8104,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.1235294117647059</v>
       </c>
     </row>
     <row r="6">
@@ -8121,13 +8121,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08928571428571429</v>
+        <v>0.07058823529411765</v>
       </c>
     </row>
     <row r="7">
@@ -8138,13 +8138,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.1117647058823529</v>
       </c>
     </row>
     <row r="8">
@@ -8161,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.02352941176470588</v>
       </c>
     </row>
     <row r="9">
@@ -8187,10 +8187,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D10" t="n">
-        <v>104.25</v>
+        <v>113</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -8263,13 +8263,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3556701030927835</v>
+        <v>0.2722222222222222</v>
       </c>
     </row>
     <row r="4">
@@ -8280,13 +8280,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n">
-        <v>60</v>
+        <v>43.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4123711340206185</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="5">
@@ -8297,13 +8297,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D5" t="n">
-        <v>5.5</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05670103092783505</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -8314,13 +8314,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04639175257731959</v>
+        <v>0.07222222222222222</v>
       </c>
     </row>
     <row r="7">
@@ -8331,13 +8331,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1082474226804124</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
@@ -8348,13 +8348,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02061855670103093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -8380,13 +8380,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D10" t="n">
-        <v>136.75</v>
+        <v>116.75</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -8632,13 +8632,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="3">
@@ -8649,13 +8649,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.1604938271604938</v>
       </c>
     </row>
     <row r="4">
@@ -8666,13 +8666,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>43.5</v>
+        <v>32.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3452380952380952</v>
+        <v>0.2654320987654321</v>
       </c>
     </row>
     <row r="5">
@@ -8683,13 +8683,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>9.5</v>
+        <v>19.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1130952380952381</v>
+        <v>0.2407407407407407</v>
       </c>
     </row>
     <row r="6">
@@ -8700,13 +8700,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="7">
@@ -8717,13 +8717,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.1049382716049383</v>
       </c>
     </row>
     <row r="8">
@@ -8734,13 +8734,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.06172839506172839</v>
       </c>
     </row>
     <row r="9">
@@ -8766,10 +8766,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D10" t="n">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -8842,13 +8842,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D3" t="n">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2722222222222222</v>
+        <v>0.4753086419753086</v>
       </c>
     </row>
     <row r="4">
@@ -8859,13 +8859,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D4" t="n">
-        <v>43.5</v>
+        <v>39.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3222222222222222</v>
+        <v>0.3271604938271605</v>
       </c>
     </row>
     <row r="5">
@@ -8876,13 +8876,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.04938271604938271</v>
       </c>
     </row>
     <row r="6">
@@ -8893,13 +8893,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07222222222222222</v>
+        <v>0.04320987654320987</v>
       </c>
     </row>
     <row r="7">
@@ -8910,13 +8910,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1</v>
+        <v>0.09259259259259259</v>
       </c>
     </row>
     <row r="8">
@@ -8927,13 +8927,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.01234567901234568</v>
       </c>
     </row>
     <row r="9">
@@ -8959,13 +8959,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D10" t="n">
-        <v>116.75</v>
+        <v>122.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9018,13 +9018,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04605263157894737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -9035,13 +9035,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="D3" t="n">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2302631578947368</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="4">
@@ -9052,13 +9052,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>37.5</v>
+        <v>16.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3289473684210527</v>
+        <v>0.130952380952381</v>
       </c>
     </row>
     <row r="5">
@@ -9069,13 +9069,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>14.5</v>
+        <v>6.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1907894736842105</v>
+        <v>0.07738095238095238</v>
       </c>
     </row>
     <row r="6">
@@ -9086,13 +9086,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>4.25</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1118421052631579</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="7">
@@ -9103,13 +9103,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03947368421052631</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="8">
@@ -9120,13 +9120,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.0119047619047619</v>
       </c>
     </row>
     <row r="9">
@@ -9152,10 +9152,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>98.25</v>
+        <v>144</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -9211,13 +9211,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.05294117647058823</v>
       </c>
     </row>
     <row r="3">
@@ -9228,13 +9228,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2848837209302326</v>
+        <v>0.1411764705882353</v>
       </c>
     </row>
     <row r="4">
@@ -9245,13 +9245,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>35.25</v>
+        <v>42.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2732558139534884</v>
+        <v>0.3352941176470588</v>
       </c>
     </row>
     <row r="5">
@@ -9262,13 +9262,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2034883720930233</v>
+        <v>0.1529411764705882</v>
       </c>
     </row>
     <row r="6">
@@ -9279,13 +9279,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09302325581395349</v>
+        <v>0.08823529411764706</v>
       </c>
     </row>
     <row r="7">
@@ -9296,13 +9296,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1104651162790698</v>
+        <v>0.1823529411764706</v>
       </c>
     </row>
     <row r="8">
@@ -9313,13 +9313,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03488372093023256</v>
+        <v>0.04705882352941176</v>
       </c>
     </row>
     <row r="9">
@@ -9345,13 +9345,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D10" t="n">
-        <v>105.75</v>
+        <v>92.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9404,13 +9404,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04320987654320987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -9421,13 +9421,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1790123456790123</v>
+        <v>0.4402173913043478</v>
       </c>
     </row>
     <row r="4">
@@ -9438,13 +9438,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2469135802469136</v>
+        <v>0.3043478260869565</v>
       </c>
     </row>
     <row r="5">
@@ -9455,13 +9455,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>17.5</v>
+        <v>8.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2160493827160494</v>
+        <v>0.09239130434782608</v>
       </c>
     </row>
     <row r="6">
@@ -9472,13 +9472,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.02717391304347826</v>
       </c>
     </row>
     <row r="7">
@@ -9489,13 +9489,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.191358024691358</v>
+        <v>0.1032608695652174</v>
       </c>
     </row>
     <row r="8">
@@ -9506,13 +9506,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04938271604938271</v>
+        <v>0.03260869565217391</v>
       </c>
     </row>
     <row r="9">
@@ -9538,13 +9538,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="D10" t="n">
-        <v>86.5</v>
+        <v>132.75</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9614,13 +9614,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3518518518518519</v>
+        <v>0.2151162790697674</v>
       </c>
     </row>
     <row r="4">
@@ -9637,7 +9637,7 @@
         <v>47.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.3662790697674418</v>
       </c>
     </row>
     <row r="5">
@@ -9648,13 +9648,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>8.5</v>
+        <v>15.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1049382716049383</v>
+        <v>0.1802325581395349</v>
       </c>
     </row>
     <row r="6">
@@ -9665,13 +9665,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0308641975308642</v>
+        <v>0.0872093023255814</v>
       </c>
     </row>
     <row r="7">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1234567901234568</v>
+        <v>0.1162790697674419</v>
       </c>
     </row>
     <row r="8">
@@ -9699,13 +9699,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.03488372093023256</v>
       </c>
     </row>
     <row r="9">
@@ -9731,13 +9731,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D10" t="n">
-        <v>114</v>
+        <v>103.5</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9807,13 +9807,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="D3" t="n">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3780487804878049</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
@@ -9824,13 +9824,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>30.75</v>
+        <v>24.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.25</v>
+        <v>0.1941176470588235</v>
       </c>
     </row>
     <row r="5">
@@ -9841,13 +9841,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1707317073170732</v>
+        <v>0.01176470588235294</v>
       </c>
     </row>
     <row r="6">
@@ -9858,13 +9858,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>3.75</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09146341463414634</v>
+        <v>0.02352941176470588</v>
       </c>
     </row>
     <row r="7">
@@ -9875,13 +9875,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1097560975609756</v>
+        <v>0.1470588235294118</v>
       </c>
     </row>
     <row r="8">
@@ -9892,13 +9892,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.02352941176470588</v>
       </c>
     </row>
     <row r="9">
@@ -9924,10 +9924,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D10" t="n">
-        <v>110.5</v>
+        <v>128.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -9983,13 +9983,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="3">
@@ -10000,13 +10000,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5059523809523809</v>
+        <v>0.2345679012345679</v>
       </c>
     </row>
     <row r="4">
@@ -10017,13 +10017,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n">
-        <v>28.5</v>
+        <v>34.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2261904761904762</v>
+        <v>0.2839506172839506</v>
       </c>
     </row>
     <row r="5">
@@ -10034,13 +10034,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.119047619047619</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="6">
@@ -10057,7 +10057,7 @@
         <v>3.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07738095238095238</v>
+        <v>0.08024691358024691</v>
       </c>
     </row>
     <row r="7">
@@ -10068,13 +10068,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.09259259259259259</v>
       </c>
     </row>
     <row r="8">
@@ -10085,13 +10085,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.04938271604938271</v>
       </c>
     </row>
     <row r="9">
@@ -10117,13 +10117,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D10" t="n">
-        <v>126.75</v>
+        <v>101.25</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10193,13 +10193,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D3" t="n">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3791208791208791</v>
+        <v>0.6158536585365854</v>
       </c>
     </row>
     <row r="4">
@@ -10210,13 +10210,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>48.75</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.2439024390243902</v>
       </c>
     </row>
     <row r="5">
@@ -10227,13 +10227,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1208791208791209</v>
+        <v>0.07317073170731707</v>
       </c>
     </row>
     <row r="6">
@@ -10244,13 +10244,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1043956043956044</v>
+        <v>0.06707317073170732</v>
       </c>
     </row>
     <row r="7">
@@ -10261,13 +10261,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02747252747252747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -10278,13 +10278,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01098901098901099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -10310,10 +10310,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D10" t="n">
-        <v>133.5</v>
+        <v>139.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -10369,13 +10369,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03645833333333334</v>
+        <v>0.05357142857142857</v>
       </c>
     </row>
     <row r="3">
@@ -10386,13 +10386,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D3" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2708333333333333</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="4">
@@ -10403,13 +10403,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="5">
@@ -10420,13 +10420,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>12.5</v>
+        <v>6.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1302083333333333</v>
+        <v>0.07738095238095238</v>
       </c>
     </row>
     <row r="6">
@@ -10437,13 +10437,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="7">
@@ -10454,13 +10454,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.21875</v>
+        <v>0.1785714285714286</v>
       </c>
     </row>
     <row r="8">
@@ -10471,13 +10471,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03125</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="9">
@@ -10503,10 +10503,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>114.5</v>
+        <v>110</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -10562,13 +10562,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -10579,13 +10579,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1436781609195402</v>
+        <v>0.26875</v>
       </c>
     </row>
     <row r="4">
@@ -10596,13 +10596,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D4" t="n">
-        <v>47.25</v>
+        <v>50.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3620689655172414</v>
+        <v>0.41875</v>
       </c>
     </row>
     <row r="5">
@@ -10613,13 +10613,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1781609195402299</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="6">
@@ -10630,13 +10630,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09195402298850575</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
@@ -10647,13 +10647,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1781609195402299</v>
+        <v>0.0375</v>
       </c>
     </row>
     <row r="8">
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04597701149425287</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9">
@@ -10696,10 +10696,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D10" t="n">
-        <v>91.75</v>
+        <v>113.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -10772,13 +10772,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2277777777777778</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -10789,13 +10789,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>69</v>
+        <v>26.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5111111111111111</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="5">
@@ -10806,13 +10806,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1555555555555556</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -10823,13 +10823,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07647058823529412</v>
       </c>
     </row>
     <row r="7">
@@ -10840,13 +10840,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.09411764705882353</v>
       </c>
     </row>
     <row r="8">
@@ -10857,13 +10857,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.02352941176470588</v>
       </c>
     </row>
     <row r="9">
@@ -10889,10 +10889,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D10" t="n">
-        <v>127.75</v>
+        <v>114.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -10948,13 +10948,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1162790697674419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -10965,13 +10965,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1511627906976744</v>
+        <v>0.6483516483516484</v>
       </c>
     </row>
     <row r="4">
@@ -10982,13 +10982,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>32.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2790697674418605</v>
+        <v>0.2362637362637363</v>
       </c>
     </row>
     <row r="5">
@@ -10999,13 +10999,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>22.5</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2616279069767442</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="6">
@@ -11016,13 +11016,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02325581395348837</v>
+        <v>0.01648351648351648</v>
       </c>
     </row>
     <row r="7">
@@ -11033,13 +11033,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1220930232558139</v>
+        <v>0.02197802197802198</v>
       </c>
     </row>
     <row r="8">
@@ -11050,13 +11050,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04651162790697674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -11082,10 +11082,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D10" t="n">
-        <v>105.5</v>
+        <v>158</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -11141,13 +11141,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03896103896103896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -11158,13 +11158,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2792207792207792</v>
+        <v>0.0989010989010989</v>
       </c>
     </row>
     <row r="4">
@@ -11175,13 +11175,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>45.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2597402597402597</v>
+        <v>0.3351648351648351</v>
       </c>
     </row>
     <row r="5">
@@ -11192,13 +11192,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>13.5</v>
+        <v>21.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1753246753246753</v>
+        <v>0.2362637362637363</v>
       </c>
     </row>
     <row r="6">
@@ -11209,13 +11209,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>4.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03896103896103896</v>
+        <v>0.09340659340659341</v>
       </c>
     </row>
     <row r="7">
@@ -11226,13 +11226,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="8">
@@ -11243,13 +11243,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06493506493506493</v>
+        <v>0.02197802197802198</v>
       </c>
     </row>
     <row r="9">
@@ -11275,10 +11275,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="D10" t="n">
-        <v>94</v>
+        <v>89.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -11334,13 +11334,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.103448275862069</v>
       </c>
     </row>
     <row r="3">
@@ -11351,13 +11351,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3518518518518519</v>
+        <v>0.09770114942528736</v>
       </c>
     </row>
     <row r="4">
@@ -11368,13 +11368,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>47.25</v>
+        <v>45</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="5">
@@ -11385,13 +11385,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>8.5</v>
+        <v>21.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1049382716049383</v>
+        <v>0.2471264367816092</v>
       </c>
     </row>
     <row r="6">
@@ -11402,13 +11402,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0308641975308642</v>
+        <v>0.08045977011494253</v>
       </c>
     </row>
     <row r="7">
@@ -11419,13 +11419,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1234567901234568</v>
+        <v>0.06896551724137931</v>
       </c>
     </row>
     <row r="8">
@@ -11436,13 +11436,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.05747126436781609</v>
       </c>
     </row>
     <row r="9">
@@ -11468,10 +11468,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D10" t="n">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -11527,13 +11527,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2823529411764706</v>
+        <v>0.1184210526315789</v>
       </c>
     </row>
     <row r="3">
@@ -11544,13 +11544,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1294117647058824</v>
+        <v>0.2960526315789473</v>
       </c>
     </row>
     <row r="4">
@@ -11561,13 +11561,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D4" t="n">
-        <v>14.25</v>
+        <v>39</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1117647058823529</v>
+        <v>0.3421052631578947</v>
       </c>
     </row>
     <row r="5">
@@ -11578,13 +11578,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1882352941176471</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="6">
@@ -11595,13 +11595,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>3.25</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07647058823529412</v>
+        <v>0.006578947368421052</v>
       </c>
     </row>
     <row r="7">
@@ -11612,13 +11612,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1411764705882353</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="8">
@@ -11629,13 +11629,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07058823529411765</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="9">
@@ -11661,10 +11661,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="D10" t="n">
-        <v>103.5</v>
+        <v>110.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -11720,13 +11720,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1325301204819277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -11737,13 +11737,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
-        <v>0.427710843373494</v>
+        <v>0.2202380952380952</v>
       </c>
     </row>
     <row r="4">
@@ -11754,13 +11754,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>26.25</v>
+        <v>37.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2108433734939759</v>
+        <v>0.2976190476190476</v>
       </c>
     </row>
     <row r="5">
@@ -11771,13 +11771,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>9.5</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1144578313253012</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -11788,13 +11788,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>0.75</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01807228915662651</v>
+        <v>0.119047619047619</v>
       </c>
     </row>
     <row r="7">
@@ -11805,13 +11805,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02409638554216868</v>
+        <v>0.1726190476190476</v>
       </c>
     </row>
     <row r="8">
@@ -11822,13 +11822,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07228915662650602</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="9">
@@ -11854,13 +11854,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>129.5</v>
+        <v>93.5</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -11913,13 +11913,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.1234567901234568</v>
       </c>
     </row>
     <row r="3">
@@ -11930,13 +11930,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2261904761904762</v>
+        <v>0.1975308641975309</v>
       </c>
     </row>
     <row r="4">
@@ -11947,13 +11947,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4047619047619048</v>
+        <v>0.2716049382716049</v>
       </c>
     </row>
     <row r="5">
@@ -11964,13 +11964,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2321428571428572</v>
+        <v>0.1851851851851852</v>
       </c>
     </row>
     <row r="6">
@@ -11981,13 +11981,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.06172839506172839</v>
       </c>
     </row>
     <row r="7">
@@ -11998,13 +11998,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.09876543209876543</v>
       </c>
     </row>
     <row r="8">
@@ -12015,13 +12015,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.06172839506172839</v>
       </c>
     </row>
     <row r="9">
@@ -12047,10 +12047,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D10" t="n">
-        <v>112.25</v>
+        <v>102.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -12106,13 +12106,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.06179775280898876</v>
       </c>
     </row>
     <row r="3">
@@ -12123,13 +12123,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.1797752808988764</v>
       </c>
     </row>
     <row r="4">
@@ -12140,13 +12140,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D4" t="n">
-        <v>17.25</v>
+        <v>49.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1369047619047619</v>
+        <v>0.3707865168539326</v>
       </c>
     </row>
     <row r="5">
@@ -12157,13 +12157,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.1235955056179775</v>
       </c>
     </row>
     <row r="6">
@@ -12174,13 +12174,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02976190476190476</v>
+        <v>0.07865168539325842</v>
       </c>
     </row>
     <row r="7">
@@ -12191,13 +12191,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1845238095238095</v>
+        <v>0.1292134831460674</v>
       </c>
     </row>
     <row r="8">
@@ -12208,13 +12208,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.05617977528089887</v>
       </c>
     </row>
     <row r="9">
@@ -12240,10 +12240,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D10" t="n">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -12316,13 +12316,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3975903614457831</v>
+        <v>0.1829268292682927</v>
       </c>
     </row>
     <row r="4">
@@ -12333,13 +12333,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>44.25</v>
+        <v>27.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3554216867469879</v>
+        <v>0.225609756097561</v>
       </c>
     </row>
     <row r="5">
@@ -12350,13 +12350,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1144578313253012</v>
+        <v>0.1402439024390244</v>
       </c>
     </row>
     <row r="6">
@@ -12367,13 +12367,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0783132530120482</v>
+        <v>0.1158536585365854</v>
       </c>
     </row>
     <row r="7">
@@ -12384,13 +12384,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03012048192771084</v>
+        <v>0.3109756097560976</v>
       </c>
     </row>
     <row r="8">
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02409638554216868</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="9">
@@ -12433,10 +12433,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D10" t="n">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -12492,13 +12492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="3">
@@ -12509,13 +12509,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0989010989010989</v>
+        <v>0.2202380952380952</v>
       </c>
     </row>
     <row r="4">
@@ -12526,13 +12526,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>45.75</v>
+        <v>23.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3351648351648351</v>
+        <v>0.1845238095238095</v>
       </c>
     </row>
     <row r="5">
@@ -12543,13 +12543,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>21.5</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2362637362637363</v>
+        <v>0.2261904761904762</v>
       </c>
     </row>
     <row r="6">
@@ -12560,13 +12560,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>4.25</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09340659340659341</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="7">
@@ -12577,13 +12577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.1904761904761905</v>
       </c>
     </row>
     <row r="8">
@@ -12594,13 +12594,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02197802197802198</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="9">
@@ -12626,13 +12626,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>89.5</v>
+        <v>97.25</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
